--- a/capiq_data/in_process_data/IQ162270.xlsx
+++ b/capiq_data/in_process_data/IQ162270.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D40196-8C88-4195-B110-1D085775AB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD00D819-393B-4906-BC6B-AFD2FA23F2F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"78435b82-c4e5-42aa-bc65-fe62fc86bd7b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"294a7601-a48c-42bd-aacb-69c79248b603"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>2890</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>17354</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>13380</v>
+        <v>5489</v>
       </c>
       <c r="F2">
-        <v>10788</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>61013</v>
+        <v>17187</v>
       </c>
       <c r="H2">
-        <v>195014</v>
+        <v>33510</v>
       </c>
       <c r="I2">
-        <v>3994</v>
+        <v>1719</v>
       </c>
       <c r="J2">
-        <v>38411</v>
+        <v>1123</v>
       </c>
       <c r="K2">
-        <v>2101</v>
+        <v>4139</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>28636</v>
+        <v>11981</v>
       </c>
       <c r="O2">
-        <v>106749</v>
+        <v>17434</v>
       </c>
       <c r="P2">
-        <v>44017</v>
+        <v>5412</v>
       </c>
       <c r="Q2">
-        <v>-441</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>110600</v>
+        <v>90000</v>
       </c>
       <c r="T2">
-        <v>88265</v>
+        <v>16076</v>
       </c>
       <c r="U2">
-        <v>1735</v>
+        <v>1099</v>
       </c>
       <c r="V2">
-        <v>6258</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-1544</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-1079</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-5600</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>2890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40636</v>
+        <v>36982</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>2222</v>
+        <v>1930</v>
       </c>
       <c r="D3">
-        <v>16024</v>
+        <v>7584</v>
       </c>
       <c r="E3">
-        <v>15182</v>
+        <v>5773</v>
       </c>
       <c r="F3">
-        <v>12724</v>
+        <v>6360</v>
       </c>
       <c r="G3">
-        <v>58244</v>
+        <v>18698</v>
       </c>
       <c r="H3">
-        <v>194956</v>
+        <v>35146</v>
       </c>
       <c r="I3">
-        <v>3750</v>
+        <v>1418</v>
       </c>
       <c r="J3">
-        <v>35313</v>
+        <v>1888</v>
       </c>
       <c r="K3">
-        <v>6093</v>
+        <v>3829</v>
       </c>
       <c r="L3">
-        <v>-2220</v>
+        <v>-370</v>
       </c>
       <c r="M3">
-        <v>-3878</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>29171</v>
+        <v>10874</v>
       </c>
       <c r="O3">
-        <v>104423</v>
+        <v>17398</v>
       </c>
       <c r="P3">
-        <v>41408</v>
+        <v>5851</v>
       </c>
       <c r="Q3">
-        <v>-1005</v>
+        <v>77</v>
       </c>
       <c r="R3">
-        <v>40636</v>
+        <v>36982</v>
       </c>
       <c r="S3">
-        <v>112400</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>90533</v>
+        <v>17748</v>
       </c>
       <c r="U3">
-        <v>730</v>
+        <v>1176</v>
       </c>
       <c r="V3">
-        <v>4642</v>
+        <v>1797</v>
       </c>
       <c r="W3">
-        <v>-1591</v>
+        <v>-680</v>
       </c>
       <c r="X3">
-        <v>-6404</v>
+        <v>-474</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4140</v>
+        <v>-784</v>
       </c>
       <c r="AA3">
-        <v>2222</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40727</v>
+        <v>37073</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>2610</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>16485</v>
+        <v>7622</v>
       </c>
       <c r="E4">
-        <v>15192</v>
+        <v>5435</v>
       </c>
       <c r="F4">
-        <v>13083</v>
+        <v>6472</v>
       </c>
       <c r="G4">
-        <v>60484</v>
+        <v>19598</v>
       </c>
       <c r="H4">
-        <v>195899</v>
+        <v>36941</v>
       </c>
       <c r="I4">
-        <v>3698</v>
+        <v>1542</v>
       </c>
       <c r="J4">
-        <v>35728</v>
+        <v>2367</v>
       </c>
       <c r="K4">
-        <v>5988</v>
+        <v>4494</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>30471</v>
+        <v>11984</v>
       </c>
       <c r="O4">
-        <v>106936</v>
+        <v>19125</v>
       </c>
       <c r="P4">
-        <v>41716</v>
+        <v>7005</v>
       </c>
       <c r="Q4">
-        <v>2366</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40727</v>
+        <v>37073</v>
       </c>
       <c r="S4">
-        <v>111800</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>88963</v>
+        <v>17816</v>
       </c>
       <c r="U4">
-        <v>3096</v>
+        <v>1295</v>
       </c>
       <c r="V4">
-        <v>5898</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-1568</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-3918</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>2610</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40818</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2073</v>
       </c>
       <c r="D5">
-        <v>16609</v>
+        <v>7824</v>
       </c>
       <c r="E5">
-        <v>15749</v>
+        <v>5679</v>
       </c>
       <c r="F5">
-        <v>13268</v>
+        <v>6647</v>
       </c>
       <c r="G5">
-        <v>62732</v>
+        <v>19999</v>
       </c>
       <c r="H5">
-        <v>196132</v>
+        <v>38806</v>
       </c>
       <c r="I5">
-        <v>3765</v>
+        <v>1632</v>
       </c>
       <c r="J5">
-        <v>35414</v>
+        <v>2087</v>
       </c>
       <c r="K5">
-        <v>5637</v>
+        <v>5878</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>27856</v>
+        <v>13039</v>
       </c>
       <c r="O5">
-        <v>105602</v>
+        <v>19910</v>
       </c>
       <c r="P5">
-        <v>41051</v>
+        <v>8449</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="R5">
-        <v>40818</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>106500</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>90530</v>
+        <v>18896</v>
       </c>
       <c r="U5">
-        <v>3706</v>
+        <v>1898</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2580</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-679</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-549</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-933</v>
       </c>
       <c r="AA5">
-        <v>3738</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>1439</v>
+        <v>1956</v>
       </c>
       <c r="D6">
-        <v>16141</v>
+        <v>5995</v>
       </c>
       <c r="E6">
-        <v>13058</v>
+        <v>4798</v>
       </c>
       <c r="F6">
-        <v>12917</v>
+        <v>5723</v>
       </c>
       <c r="G6">
-        <v>60817</v>
+        <v>19212</v>
       </c>
       <c r="H6">
-        <v>188002</v>
+        <v>39153</v>
       </c>
       <c r="I6">
-        <v>3678</v>
+        <v>1411</v>
       </c>
       <c r="J6">
-        <v>34940</v>
+        <v>2609</v>
       </c>
       <c r="K6">
-        <v>4010</v>
+        <v>5895</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>28909</v>
+        <v>13729</v>
       </c>
       <c r="O6">
-        <v>105381</v>
+        <v>20860</v>
       </c>
       <c r="P6">
-        <v>38956</v>
+        <v>8872</v>
       </c>
       <c r="Q6">
-        <v>-524</v>
+        <v>-862</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>103700</v>
+        <v>90000</v>
       </c>
       <c r="T6">
-        <v>82621</v>
+        <v>18293</v>
       </c>
       <c r="U6">
-        <v>3182</v>
+        <v>1036</v>
       </c>
       <c r="V6">
-        <v>5261</v>
+        <v>2384</v>
       </c>
       <c r="W6">
-        <v>-1524</v>
+        <v>-677</v>
       </c>
       <c r="X6">
-        <v>-6250</v>
+        <v>-1282</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1363</v>
+        <v>-1376</v>
       </c>
       <c r="AA6">
-        <v>1439</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1794</v>
+        <v>1963</v>
       </c>
       <c r="D7">
-        <v>13845</v>
+        <v>7747</v>
       </c>
       <c r="E7">
-        <v>14182</v>
+        <v>6453</v>
       </c>
       <c r="F7">
-        <v>11538</v>
+        <v>6807</v>
       </c>
       <c r="G7">
-        <v>54863</v>
+        <v>20970</v>
       </c>
       <c r="H7">
-        <v>185683</v>
+        <v>41316</v>
       </c>
       <c r="I7">
-        <v>3091</v>
+        <v>1591</v>
       </c>
       <c r="J7">
-        <v>33569</v>
+        <v>2580</v>
       </c>
       <c r="K7">
-        <v>5526</v>
+        <v>368</v>
       </c>
       <c r="L7">
-        <v>-1791</v>
+        <v>-157</v>
       </c>
       <c r="M7">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="N7">
-        <v>27094</v>
+        <v>14729</v>
       </c>
       <c r="O7">
-        <v>102006</v>
+        <v>21642</v>
       </c>
       <c r="P7">
-        <v>39095</v>
+        <v>10326</v>
       </c>
       <c r="Q7">
-        <v>-248</v>
+        <v>296</v>
       </c>
       <c r="R7">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>102500</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>83677</v>
+        <v>19674</v>
       </c>
       <c r="U7">
-        <v>2934</v>
+        <v>1332</v>
       </c>
       <c r="V7">
-        <v>2774</v>
+        <v>1535</v>
       </c>
       <c r="W7">
-        <v>-1650</v>
+        <v>-798</v>
       </c>
       <c r="X7">
-        <v>-3507</v>
+        <v>-215</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1516</v>
+        <v>-606</v>
       </c>
       <c r="AA7">
-        <v>1794</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>3253</v>
+        <v>1957</v>
       </c>
       <c r="D8">
-        <v>13968</v>
+        <v>7296</v>
       </c>
       <c r="E8">
-        <v>12882</v>
+        <v>6273</v>
       </c>
       <c r="F8">
-        <v>11650</v>
+        <v>6394</v>
       </c>
       <c r="G8">
-        <v>58765</v>
+        <v>22386</v>
       </c>
       <c r="H8">
-        <v>182842</v>
+        <v>42568</v>
       </c>
       <c r="I8">
-        <v>3165</v>
+        <v>1524</v>
       </c>
       <c r="J8">
-        <v>30888</v>
+        <v>3072</v>
       </c>
       <c r="K8">
-        <v>7703</v>
+        <v>7748</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>30798</v>
+        <v>16317</v>
       </c>
       <c r="O8">
-        <v>102881</v>
+        <v>23738</v>
       </c>
       <c r="P8">
-        <v>38591</v>
+        <v>11438</v>
       </c>
       <c r="Q8">
-        <v>97</v>
+        <v>-136</v>
       </c>
       <c r="R8">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>101000</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>79961</v>
+        <v>18830</v>
       </c>
       <c r="U8">
-        <v>3031</v>
+        <v>1196</v>
       </c>
       <c r="V8">
-        <v>4021</v>
+        <v>2543</v>
       </c>
       <c r="W8">
-        <v>-1633</v>
+        <v>-796</v>
       </c>
       <c r="X8">
-        <v>-2968</v>
+        <v>-801</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-566</v>
+        <v>-1389</v>
       </c>
       <c r="AA8">
-        <v>3253</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>3208</v>
+        <v>2350</v>
       </c>
       <c r="D9">
-        <v>12953</v>
+        <v>7996</v>
       </c>
       <c r="E9">
-        <v>12523</v>
+        <v>6099</v>
       </c>
       <c r="F9">
-        <v>10737</v>
+        <v>6970</v>
       </c>
       <c r="G9">
-        <v>57127</v>
+        <v>23670</v>
       </c>
       <c r="H9">
-        <v>182603</v>
+        <v>44876</v>
       </c>
       <c r="I9">
-        <v>2967</v>
+        <v>1551</v>
       </c>
       <c r="J9">
-        <v>31112</v>
+        <v>3118</v>
       </c>
       <c r="K9">
-        <v>7774</v>
+        <v>10272</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>29131</v>
+        <v>18401</v>
       </c>
       <c r="O9">
-        <v>100488</v>
+        <v>25923</v>
       </c>
       <c r="P9">
-        <v>38886</v>
+        <v>13808</v>
       </c>
       <c r="Q9">
-        <v>1475</v>
+        <v>578</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="S9">
-        <v>98800</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>82115</v>
+        <v>18953</v>
       </c>
       <c r="U9">
-        <v>4506</v>
+        <v>1774</v>
       </c>
       <c r="V9">
-        <v>5003</v>
+        <v>2322</v>
       </c>
       <c r="W9">
-        <v>-1632</v>
+        <v>-788</v>
       </c>
       <c r="X9">
-        <v>-3291</v>
+        <v>-940</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-14</v>
+        <v>-640</v>
       </c>
       <c r="AA9">
-        <v>3208</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>6315</v>
+        <v>2856</v>
       </c>
       <c r="D10">
-        <v>13891</v>
+        <v>9334</v>
       </c>
       <c r="E10">
-        <v>10675</v>
+        <v>5785</v>
       </c>
       <c r="F10">
-        <v>11199</v>
+        <v>8156</v>
       </c>
       <c r="G10">
-        <v>64831</v>
+        <v>24781</v>
       </c>
       <c r="H10">
-        <v>185798</v>
+        <v>46356</v>
       </c>
       <c r="I10">
-        <v>2921</v>
+        <v>1620</v>
       </c>
       <c r="J10">
-        <v>31069</v>
+        <v>3140</v>
       </c>
       <c r="K10">
-        <v>3975</v>
+        <v>8413</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>29186</v>
+        <v>18555</v>
       </c>
       <c r="O10">
-        <v>104120</v>
+        <v>26406</v>
       </c>
       <c r="P10">
-        <v>37493</v>
+        <v>11809</v>
       </c>
       <c r="Q10">
-        <v>5575</v>
+        <v>104</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>91500</v>
+        <v>98000</v>
       </c>
       <c r="T10">
-        <v>81678</v>
+        <v>19950</v>
       </c>
       <c r="U10">
-        <v>10081</v>
+        <v>1878</v>
       </c>
       <c r="V10">
-        <v>4948</v>
+        <v>3783</v>
       </c>
       <c r="W10">
-        <v>-1619</v>
+        <v>-786</v>
       </c>
       <c r="X10">
-        <v>-6233</v>
+        <v>-3043</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-4348</v>
+        <v>364</v>
       </c>
       <c r="AA10">
-        <v>6315</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>2750</v>
+        <v>4665</v>
       </c>
       <c r="D11">
-        <v>12410</v>
+        <v>8506</v>
       </c>
       <c r="E11">
-        <v>12735</v>
+        <v>6759</v>
       </c>
       <c r="F11">
-        <v>10186</v>
+        <v>7448</v>
       </c>
       <c r="G11">
-        <v>64763</v>
+        <v>31103</v>
       </c>
       <c r="H11">
-        <v>187398</v>
+        <v>52928</v>
       </c>
       <c r="I11">
-        <v>3279</v>
+        <v>1374</v>
       </c>
       <c r="J11">
-        <v>31507</v>
+        <v>3713</v>
       </c>
       <c r="K11">
-        <v>8896</v>
+        <v>9259</v>
       </c>
       <c r="L11">
-        <v>-1031</v>
+        <v>-89</v>
       </c>
       <c r="M11">
-        <v>-2</v>
+        <v>-256</v>
       </c>
       <c r="N11">
-        <v>27543</v>
+        <v>18754</v>
       </c>
       <c r="O11">
-        <v>104571</v>
+        <v>28085</v>
       </c>
       <c r="P11">
-        <v>40403</v>
+        <v>12978</v>
       </c>
       <c r="Q11">
-        <v>-8189</v>
+        <v>190</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="S11">
-        <v>89400</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>82827</v>
+        <v>24843</v>
       </c>
       <c r="U11">
-        <v>2134</v>
+        <v>2068</v>
       </c>
       <c r="V11">
-        <v>2303</v>
+        <v>2337</v>
       </c>
       <c r="W11">
-        <v>-1735</v>
+        <v>-906</v>
       </c>
       <c r="X11">
-        <v>434</v>
+        <v>-252</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-10754</v>
+        <v>-2742</v>
       </c>
       <c r="AA11">
-        <v>2750</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>14095</v>
+        <v>-3592</v>
       </c>
       <c r="D12">
-        <v>12973</v>
+        <v>9900</v>
       </c>
       <c r="E12">
-        <v>11523</v>
+        <v>8808</v>
       </c>
       <c r="F12">
-        <v>10794</v>
+        <v>7920</v>
       </c>
       <c r="G12">
-        <v>61435</v>
+        <v>34744</v>
       </c>
       <c r="H12">
-        <v>179335</v>
+        <v>124258</v>
       </c>
       <c r="I12">
-        <v>1978</v>
+        <v>2121</v>
       </c>
       <c r="J12">
-        <v>31728</v>
+        <v>6710</v>
       </c>
       <c r="K12">
-        <v>5214</v>
+        <v>8091</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23450</v>
+        <v>22157</v>
       </c>
       <c r="O12">
-        <v>100358</v>
+        <v>53976</v>
       </c>
       <c r="P12">
-        <v>36942</v>
+        <v>14924</v>
       </c>
       <c r="Q12">
-        <v>544</v>
+        <v>122</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="S12">
-        <v>79000</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>78977</v>
+        <v>70282</v>
       </c>
       <c r="U12">
-        <v>2436</v>
+        <v>2190</v>
       </c>
       <c r="V12">
-        <v>3757</v>
+        <v>2133</v>
       </c>
       <c r="W12">
-        <v>-1701</v>
+        <v>-1183</v>
       </c>
       <c r="X12">
-        <v>-4034</v>
+        <v>-7716</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1153</v>
+        <v>381</v>
       </c>
       <c r="AA12">
-        <v>14095</v>
+        <v>-3592</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>2590</v>
+        <v>2235</v>
       </c>
       <c r="D13">
-        <v>12643</v>
+        <v>12348</v>
       </c>
       <c r="E13">
-        <v>11371</v>
+        <v>8626</v>
       </c>
       <c r="F13">
-        <v>10461</v>
+        <v>9063</v>
       </c>
       <c r="G13">
-        <v>59500</v>
+        <v>33067</v>
       </c>
       <c r="H13">
-        <v>175521</v>
+        <v>120058</v>
       </c>
       <c r="I13">
-        <v>2287</v>
+        <v>1998</v>
       </c>
       <c r="J13">
-        <v>32012</v>
+        <v>6439</v>
       </c>
       <c r="K13">
-        <v>4738</v>
+        <v>9281</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20373</v>
+        <v>21660</v>
       </c>
       <c r="O13">
-        <v>97167</v>
+        <v>51527</v>
       </c>
       <c r="P13">
-        <v>36750</v>
+        <v>15835</v>
       </c>
       <c r="Q13">
-        <v>-384</v>
+        <v>-580</v>
       </c>
       <c r="R13">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="S13">
-        <v>78400</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>78354</v>
+        <v>68531</v>
       </c>
       <c r="U13">
-        <v>2052</v>
+        <v>1610</v>
       </c>
       <c r="V13">
-        <v>5900</v>
+        <v>2873</v>
       </c>
       <c r="W13">
-        <v>-1590</v>
+        <v>-1187</v>
       </c>
       <c r="X13">
-        <v>-5631</v>
+        <v>-3556</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-298</v>
+        <v>1046</v>
       </c>
       <c r="AA13">
-        <v>2590</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>2568</v>
+        <v>602</v>
       </c>
       <c r="D14">
-        <v>13558</v>
+        <v>13982</v>
       </c>
       <c r="E14">
-        <v>9357</v>
+        <v>8636</v>
       </c>
       <c r="F14">
-        <v>10893</v>
+        <v>13463</v>
       </c>
       <c r="G14">
-        <v>56244</v>
+        <v>30677</v>
       </c>
       <c r="H14">
-        <v>172101</v>
+        <v>116775</v>
       </c>
       <c r="I14">
-        <v>3234</v>
+        <v>2587</v>
       </c>
       <c r="J14">
-        <v>30763</v>
+        <v>5755</v>
       </c>
       <c r="K14">
-        <v>3967</v>
+        <v>8092</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23366</v>
+        <v>23909</v>
       </c>
       <c r="O14">
-        <v>95481</v>
+        <v>51398</v>
       </c>
       <c r="P14">
-        <v>36790</v>
+        <v>14573</v>
       </c>
       <c r="Q14">
-        <v>131</v>
+        <v>-90</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>77700</v>
+        <v>122000</v>
       </c>
       <c r="T14">
-        <v>76620</v>
+        <v>65377</v>
       </c>
       <c r="U14">
-        <v>2183</v>
+        <v>1520</v>
       </c>
       <c r="V14">
-        <v>5724</v>
+        <v>4384</v>
       </c>
       <c r="W14">
-        <v>-1554</v>
+        <v>-1077</v>
       </c>
       <c r="X14">
-        <v>-5744</v>
+        <v>-5385</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>523</v>
+        <v>1917</v>
       </c>
       <c r="AA14">
-        <v>2568</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="D15">
-        <v>11353</v>
+        <v>12487</v>
       </c>
       <c r="E15">
-        <v>9399</v>
+        <v>10415</v>
       </c>
       <c r="F15">
-        <v>9436</v>
+        <v>10693</v>
       </c>
       <c r="G15">
-        <v>57793</v>
+        <v>35389</v>
       </c>
       <c r="H15">
-        <v>171808</v>
+        <v>122289</v>
       </c>
       <c r="I15">
-        <v>2546</v>
+        <v>2479</v>
       </c>
       <c r="J15">
-        <v>27835</v>
+        <v>7144</v>
       </c>
       <c r="K15">
-        <v>9319</v>
+        <v>9760</v>
       </c>
       <c r="L15">
+        <v>-106</v>
+      </c>
+      <c r="M15">
         <v>-3</v>
       </c>
-      <c r="M15">
-        <v>-752</v>
-      </c>
       <c r="N15">
-        <v>24790</v>
+        <v>24637</v>
       </c>
       <c r="O15">
-        <v>93740</v>
+        <v>53241</v>
       </c>
       <c r="P15">
-        <v>37155</v>
+        <v>17836</v>
       </c>
       <c r="Q15">
-        <v>679</v>
+        <v>-555</v>
       </c>
       <c r="R15">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>78068</v>
+        <v>69048</v>
       </c>
       <c r="U15">
-        <v>2862</v>
+        <v>965</v>
       </c>
       <c r="V15">
-        <v>2935</v>
+        <v>1583</v>
       </c>
       <c r="W15">
-        <v>-1662</v>
+        <v>-1282</v>
       </c>
       <c r="X15">
-        <v>-2133</v>
+        <v>1583</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-6</v>
+        <v>-1627</v>
       </c>
       <c r="AA15">
-        <v>2329</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2864</v>
       </c>
       <c r="D16">
-        <v>12773</v>
+        <v>12274</v>
       </c>
       <c r="E16">
-        <v>10388</v>
+        <v>9342</v>
       </c>
       <c r="F16">
-        <v>10467</v>
+        <v>10522</v>
       </c>
       <c r="G16">
-        <v>58287</v>
+        <v>36685</v>
       </c>
       <c r="H16">
-        <v>172612</v>
+        <v>119961</v>
       </c>
       <c r="I16">
-        <v>2990</v>
+        <v>2480</v>
       </c>
       <c r="J16">
-        <v>32355</v>
+        <v>6765</v>
       </c>
       <c r="K16">
-        <v>5561</v>
+        <v>11283</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21938</v>
+        <v>25158</v>
       </c>
       <c r="O16">
-        <v>95656</v>
+        <v>53256</v>
       </c>
       <c r="P16">
-        <v>37918</v>
+        <v>18969</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-313</v>
       </c>
       <c r="R16">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>76956</v>
+        <v>66705</v>
       </c>
       <c r="U16">
-        <v>3406</v>
+        <v>652</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-1280</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-867</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-3069</v>
       </c>
       <c r="AA16">
-        <v>2912</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41910</v>
+        <v>38256</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>2666</v>
+        <v>3341</v>
       </c>
       <c r="D17">
-        <v>12361</v>
+        <v>12831</v>
       </c>
       <c r="E17">
-        <v>9955</v>
+        <v>9216</v>
       </c>
       <c r="F17">
-        <v>10126</v>
+        <v>11191</v>
       </c>
       <c r="G17">
-        <v>56987</v>
+        <v>39057</v>
       </c>
       <c r="H17">
-        <v>171362</v>
+        <v>122229</v>
       </c>
       <c r="I17">
-        <v>2973</v>
+        <v>2329</v>
       </c>
       <c r="J17">
-        <v>31729</v>
+        <v>7956</v>
       </c>
       <c r="K17">
-        <v>5389</v>
+        <v>9944</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19920</v>
+        <v>25239</v>
       </c>
       <c r="O17">
-        <v>93057</v>
+        <v>53846</v>
       </c>
       <c r="P17">
-        <v>37120</v>
+        <v>18814</v>
       </c>
       <c r="Q17">
-        <v>-968</v>
+        <v>1212</v>
       </c>
       <c r="R17">
-        <v>41910</v>
+        <v>38256</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>78305</v>
+        <v>68383</v>
       </c>
       <c r="U17">
-        <v>2437</v>
+        <v>1864</v>
       </c>
       <c r="V17">
-        <v>4463</v>
+        <v>5176</v>
       </c>
       <c r="W17">
-        <v>-1650</v>
+        <v>-1259</v>
       </c>
       <c r="X17">
-        <v>-2887</v>
+        <v>-3996</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-1816</v>
+        <v>54</v>
       </c>
       <c r="AA17">
-        <v>2666</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>1228</v>
+        <v>2825</v>
       </c>
       <c r="D18">
-        <v>13118</v>
+        <v>14923</v>
       </c>
       <c r="E18">
-        <v>8401</v>
+        <v>9367</v>
       </c>
       <c r="F18">
-        <v>10543</v>
+        <v>12607</v>
       </c>
       <c r="G18">
-        <v>55595</v>
+        <v>39088</v>
       </c>
       <c r="H18">
-        <v>167566</v>
+        <v>123078</v>
       </c>
       <c r="I18">
-        <v>3210</v>
+        <v>2672</v>
       </c>
       <c r="J18">
-        <v>31557</v>
+        <v>7279</v>
       </c>
       <c r="K18">
-        <v>2130</v>
+        <v>10359</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21587</v>
+        <v>26458</v>
       </c>
       <c r="O18">
-        <v>95944</v>
+        <v>54800</v>
       </c>
       <c r="P18">
-        <v>36699</v>
+        <v>18545</v>
       </c>
       <c r="Q18">
-        <v>905</v>
+        <v>-56</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>78300</v>
+        <v>115000</v>
       </c>
       <c r="T18">
-        <v>71622</v>
+        <v>68278</v>
       </c>
       <c r="U18">
-        <v>3343</v>
+        <v>1808</v>
       </c>
       <c r="V18">
-        <v>5398</v>
+        <v>5990</v>
       </c>
       <c r="W18">
-        <v>-1639</v>
+        <v>-1261</v>
       </c>
       <c r="X18">
-        <v>-2926</v>
+        <v>-3349</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-1140</v>
+        <v>-893</v>
       </c>
       <c r="AA18">
-        <v>1228</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42092</v>
+        <v>38445</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>2376</v>
+        <v>301</v>
       </c>
       <c r="D19">
-        <v>10864</v>
+        <v>12143</v>
       </c>
       <c r="E19">
-        <v>8920</v>
+        <v>10074</v>
       </c>
       <c r="F19">
-        <v>9056</v>
+        <v>10266</v>
       </c>
       <c r="G19">
-        <v>49443</v>
+        <v>42353</v>
       </c>
       <c r="H19">
-        <v>160640</v>
+        <v>122935</v>
       </c>
       <c r="I19">
-        <v>2724</v>
+        <v>2300</v>
       </c>
       <c r="J19">
-        <v>29441</v>
+        <v>6432</v>
       </c>
       <c r="K19">
-        <v>6555</v>
+        <v>12009</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-205</v>
       </c>
       <c r="M19">
-        <v>-2998</v>
+        <v>-1</v>
       </c>
       <c r="N19">
-        <v>20222</v>
+        <v>28948</v>
       </c>
       <c r="O19">
-        <v>93053</v>
+        <v>55403</v>
       </c>
       <c r="P19">
-        <v>35997</v>
+        <v>19831</v>
       </c>
       <c r="Q19">
-        <v>220</v>
+        <v>-332</v>
       </c>
       <c r="R19">
-        <v>42092</v>
+        <v>38445</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>67587</v>
+        <v>67532</v>
       </c>
       <c r="U19">
-        <v>3563</v>
+        <v>1476</v>
       </c>
       <c r="V19">
-        <v>680</v>
+        <v>3193</v>
       </c>
       <c r="W19">
-        <v>-1758</v>
+        <v>-1400</v>
       </c>
       <c r="X19">
-        <v>-6978</v>
+        <v>-818</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>7186</v>
+        <v>-2417</v>
       </c>
       <c r="AA19">
-        <v>2376</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42183</v>
+        <v>38536</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>2626</v>
+        <v>3462</v>
       </c>
       <c r="D20">
-        <v>11853</v>
+        <v>11452</v>
       </c>
       <c r="E20">
-        <v>8951</v>
+        <v>9316</v>
       </c>
       <c r="F20">
-        <v>9729</v>
+        <v>9691</v>
       </c>
       <c r="G20">
-        <v>51715</v>
+        <v>33573</v>
       </c>
       <c r="H20">
-        <v>160878</v>
+        <v>112327</v>
       </c>
       <c r="I20">
-        <v>2930</v>
+        <v>2100</v>
       </c>
       <c r="J20">
-        <v>27105</v>
+        <v>5517</v>
       </c>
       <c r="K20">
-        <v>8394</v>
+        <v>4856</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>24143</v>
+        <v>22566</v>
       </c>
       <c r="O20">
-        <v>93698</v>
+        <v>46999</v>
       </c>
       <c r="P20">
-        <v>35503</v>
+        <v>12778</v>
       </c>
       <c r="Q20">
-        <v>107</v>
+        <v>-200</v>
       </c>
       <c r="R20">
-        <v>42183</v>
+        <v>38536</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>67180</v>
+        <v>65328</v>
       </c>
       <c r="U20">
-        <v>3670</v>
+        <v>1276</v>
       </c>
       <c r="V20">
-        <v>4090</v>
+        <v>3790</v>
       </c>
       <c r="W20">
-        <v>-1725</v>
+        <v>-1530</v>
       </c>
       <c r="X20">
-        <v>-1874</v>
+        <v>-10868</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-1843</v>
+        <v>7554</v>
       </c>
       <c r="AA20">
-        <v>2626</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42274</v>
+        <v>38627</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>2130</v>
+        <v>1589</v>
       </c>
       <c r="D21">
-        <v>12087</v>
+        <v>11263</v>
       </c>
       <c r="E21">
-        <v>9535</v>
+        <v>9348</v>
       </c>
       <c r="F21">
-        <v>9893</v>
+        <v>9688</v>
       </c>
       <c r="G21">
-        <v>45002</v>
+        <v>32768</v>
       </c>
       <c r="H21">
-        <v>170867</v>
+        <v>110343</v>
       </c>
       <c r="I21">
-        <v>3294</v>
+        <v>1809</v>
       </c>
       <c r="J21">
-        <v>29223</v>
+        <v>5414</v>
       </c>
       <c r="K21">
-        <v>9818</v>
+        <v>5328</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>27845</v>
+        <v>20395</v>
       </c>
       <c r="O21">
-        <v>103743</v>
+        <v>43536</v>
       </c>
       <c r="P21">
-        <v>39054</v>
+        <v>12143</v>
       </c>
       <c r="Q21">
-        <v>-571</v>
+        <v>-317</v>
       </c>
       <c r="R21">
-        <v>42274</v>
+        <v>38627</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>67124</v>
+        <v>66807</v>
       </c>
       <c r="U21">
-        <v>3099</v>
+        <v>959</v>
       </c>
       <c r="V21">
-        <v>5020</v>
+        <v>3013</v>
       </c>
       <c r="W21">
-        <v>-1728</v>
+        <v>-1247</v>
       </c>
       <c r="X21">
-        <v>-263</v>
+        <v>-1862</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>10712</v>
+        <v>1207</v>
       </c>
       <c r="AA21">
-        <v>2130</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2733</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>12547</v>
       </c>
       <c r="E22">
-        <v>8176</v>
+        <v>9103</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>10652</v>
       </c>
       <c r="G22">
-        <v>43804</v>
+        <v>46835</v>
       </c>
       <c r="H22">
-        <v>167381</v>
+        <v>116970</v>
       </c>
       <c r="I22">
-        <v>3620</v>
+        <v>2073</v>
       </c>
       <c r="J22">
-        <v>28874</v>
+        <v>6347</v>
       </c>
       <c r="K22">
-        <v>6440</v>
+        <v>10811</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>29398</v>
+        <v>28402</v>
       </c>
       <c r="O22">
-        <v>102383</v>
+        <v>51206</v>
       </c>
       <c r="P22">
-        <v>39038</v>
+        <v>17936</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>97900</v>
+        <v>106000</v>
       </c>
       <c r="T22">
-        <v>64998</v>
+        <v>65764</v>
       </c>
       <c r="U22">
-        <v>3641</v>
+        <v>2247</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>4737</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>-1378</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>4326</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-6983</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42463</v>
+        <v>38809</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>3038</v>
+        <v>4111</v>
       </c>
       <c r="D23">
-        <v>13005</v>
+        <v>11747</v>
       </c>
       <c r="E23">
-        <v>9033</v>
+        <v>10352</v>
       </c>
       <c r="F23">
-        <v>10434</v>
+        <v>10200</v>
       </c>
       <c r="G23">
-        <v>41298</v>
+        <v>37415</v>
       </c>
       <c r="H23">
-        <v>162929</v>
+        <v>112959</v>
       </c>
       <c r="I23">
-        <v>3125</v>
+        <v>1892</v>
       </c>
       <c r="J23">
-        <v>27828</v>
+        <v>6508</v>
       </c>
       <c r="K23">
-        <v>11546</v>
+        <v>5059</v>
       </c>
       <c r="L23">
-        <v>-1350</v>
+        <v>-8056</v>
       </c>
       <c r="M23">
-        <v>-1536</v>
+        <v>-1</v>
       </c>
       <c r="N23">
-        <v>28735</v>
+        <v>19674</v>
       </c>
       <c r="O23">
-        <v>99582</v>
+        <v>43350</v>
       </c>
       <c r="P23">
-        <v>39379</v>
+        <v>11567</v>
       </c>
       <c r="Q23">
-        <v>-1080</v>
+        <v>622</v>
       </c>
       <c r="R23">
-        <v>42463</v>
+        <v>38809</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>63347</v>
+        <v>69609</v>
       </c>
       <c r="U23">
-        <v>2561</v>
+        <v>2869</v>
       </c>
       <c r="V23">
-        <v>1808</v>
+        <v>3961</v>
       </c>
       <c r="W23">
-        <v>-1854</v>
+        <v>-1743</v>
       </c>
       <c r="X23">
-        <v>-7171</v>
+        <v>-8766</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>4760</v>
+        <v>7491</v>
       </c>
       <c r="AA23">
-        <v>3038</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42554</v>
+        <v>38900</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>2047</v>
+        <v>2415</v>
       </c>
       <c r="D24">
-        <v>13147</v>
+        <v>11741</v>
       </c>
       <c r="E24">
-        <v>9138</v>
+        <v>9275</v>
       </c>
       <c r="F24">
-        <v>10033</v>
+        <v>10055</v>
       </c>
       <c r="G24">
-        <v>43845</v>
+        <v>40994</v>
       </c>
       <c r="H24">
-        <v>170658</v>
+        <v>111550</v>
       </c>
       <c r="I24">
-        <v>3261</v>
+        <v>1740</v>
       </c>
       <c r="J24">
-        <v>30458</v>
+        <v>5450</v>
       </c>
       <c r="K24">
-        <v>13724</v>
+        <v>3779</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>32099</v>
+        <v>20055</v>
       </c>
       <c r="O24">
-        <v>107592</v>
+        <v>43061</v>
       </c>
       <c r="P24">
-        <v>44185</v>
+        <v>9229</v>
       </c>
       <c r="Q24">
-        <v>850</v>
+        <v>-948</v>
       </c>
       <c r="R24">
-        <v>42554</v>
+        <v>38900</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>63066</v>
+        <v>68489</v>
       </c>
       <c r="U24">
-        <v>3411</v>
+        <v>1921</v>
       </c>
       <c r="V24">
-        <v>3606</v>
+        <v>5143</v>
       </c>
       <c r="W24">
-        <v>-1821</v>
+        <v>-1725</v>
       </c>
       <c r="X24">
-        <v>1918</v>
+        <v>-4977</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>305</v>
+        <v>-116</v>
       </c>
       <c r="AA24">
-        <v>2047</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42645</v>
+        <v>38991</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1355</v>
+        <v>3362</v>
       </c>
       <c r="D25">
-        <v>13045</v>
+        <v>12280</v>
       </c>
       <c r="E25">
-        <v>9836</v>
+        <v>9177</v>
       </c>
       <c r="F25">
-        <v>10056</v>
+        <v>10368</v>
       </c>
       <c r="G25">
-        <v>38501</v>
+        <v>38721</v>
       </c>
       <c r="H25">
-        <v>178430</v>
+        <v>108585</v>
       </c>
       <c r="I25">
-        <v>3476</v>
+        <v>1742</v>
       </c>
       <c r="J25">
-        <v>30439</v>
+        <v>5561</v>
       </c>
       <c r="K25">
-        <v>13633</v>
+        <v>2508</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>34759</v>
+        <v>17688</v>
       </c>
       <c r="O25">
-        <v>114830</v>
+        <v>38873</v>
       </c>
       <c r="P25">
-        <v>44073</v>
+        <v>8069</v>
       </c>
       <c r="Q25">
-        <v>-1317</v>
+        <v>-744</v>
       </c>
       <c r="R25">
-        <v>42645</v>
+        <v>38991</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>63600</v>
+        <v>69712</v>
       </c>
       <c r="U25">
-        <v>2094</v>
+        <v>1177</v>
       </c>
       <c r="V25">
-        <v>4737</v>
+        <v>4014</v>
       </c>
       <c r="W25">
-        <v>-1821</v>
+        <v>-1743</v>
       </c>
       <c r="X25">
-        <v>-1662</v>
+        <v>-5103</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>9079</v>
+        <v>893</v>
       </c>
       <c r="AA25">
-        <v>1355</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>9449</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>12603</v>
       </c>
       <c r="E26">
-        <v>8225</v>
+        <v>9392</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="G26">
-        <v>38949</v>
+        <v>47658</v>
       </c>
       <c r="H26">
-        <v>171615</v>
+        <v>115546</v>
       </c>
       <c r="I26">
-        <v>4536</v>
+        <v>2019</v>
       </c>
       <c r="J26">
-        <v>31545</v>
+        <v>5546</v>
       </c>
       <c r="K26">
-        <v>6463</v>
+        <v>1722</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>31115</v>
+        <v>22099</v>
       </c>
       <c r="O26">
-        <v>111775</v>
+        <v>44114</v>
       </c>
       <c r="P26">
-        <v>42234</v>
+        <v>7980</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>96500</v>
+        <v>98000</v>
       </c>
       <c r="T26">
-        <v>59840</v>
+        <v>71432</v>
       </c>
       <c r="U26">
-        <v>2595</v>
+        <v>1827</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>4476</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>-1708</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>-4254</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>3121</v>
+        <v>3392</v>
       </c>
       <c r="D27">
-        <v>12779</v>
+        <v>12474</v>
       </c>
       <c r="E27">
-        <v>8892</v>
+        <v>10455</v>
       </c>
       <c r="F27">
-        <v>10340</v>
+        <v>10681</v>
       </c>
       <c r="G27">
-        <v>35879</v>
+        <v>42337</v>
       </c>
       <c r="H27">
-        <v>168784</v>
+        <v>110483</v>
       </c>
       <c r="I27">
-        <v>3393</v>
+        <v>2037</v>
       </c>
       <c r="J27">
-        <v>36556</v>
+        <v>4771</v>
       </c>
       <c r="K27">
-        <v>4388</v>
+        <v>2638</v>
       </c>
       <c r="L27">
-        <v>-4629</v>
+        <v>-729</v>
       </c>
       <c r="M27">
-        <v>-1253</v>
+        <v>-58</v>
       </c>
       <c r="N27">
-        <v>24864</v>
+        <v>13301</v>
       </c>
       <c r="O27">
-        <v>110038</v>
+        <v>37995</v>
       </c>
       <c r="P27">
-        <v>44236</v>
+        <v>7409</v>
       </c>
       <c r="Q27">
-        <v>1465</v>
+        <v>665</v>
       </c>
       <c r="R27">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>58746</v>
+        <v>72488</v>
       </c>
       <c r="U27">
-        <v>4057</v>
+        <v>2492</v>
       </c>
       <c r="V27">
-        <v>1584</v>
+        <v>1243</v>
       </c>
       <c r="W27">
-        <v>-1945</v>
+        <v>-2032</v>
       </c>
       <c r="X27">
-        <v>-4907</v>
+        <v>-4848</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>5413</v>
+        <v>5049</v>
       </c>
       <c r="AA27">
-        <v>3121</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>3073</v>
+        <v>1267</v>
       </c>
       <c r="D28">
-        <v>12896</v>
+        <v>11084</v>
       </c>
       <c r="E28">
-        <v>9476</v>
+        <v>9497</v>
       </c>
       <c r="F28">
-        <v>10295</v>
+        <v>9145</v>
       </c>
       <c r="G28">
-        <v>36385</v>
+        <v>41622</v>
       </c>
       <c r="H28">
-        <v>168558</v>
+        <v>110403</v>
       </c>
       <c r="I28">
-        <v>3439</v>
+        <v>1845</v>
       </c>
       <c r="J28">
-        <v>34357</v>
+        <v>5777</v>
       </c>
       <c r="K28">
-        <v>6442</v>
+        <v>2432</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>27182</v>
+        <v>15136</v>
       </c>
       <c r="O28">
-        <v>109864</v>
+        <v>42309</v>
       </c>
       <c r="P28">
-        <v>43871</v>
+        <v>8209</v>
       </c>
       <c r="Q28">
-        <v>-1470</v>
+        <v>-354</v>
       </c>
       <c r="R28">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>58694</v>
+        <v>68094</v>
       </c>
       <c r="U28">
-        <v>2585</v>
+        <v>2138</v>
       </c>
       <c r="V28">
-        <v>3240</v>
+        <v>3665</v>
       </c>
       <c r="W28">
-        <v>-1910</v>
+        <v>-2008</v>
       </c>
       <c r="X28">
-        <v>-2989</v>
+        <v>-3310</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-991</v>
+        <v>93</v>
       </c>
       <c r="AA28">
-        <v>3073</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>2840</v>
+        <v>761</v>
       </c>
       <c r="D29">
-        <v>13168</v>
+        <v>11990</v>
       </c>
       <c r="E29">
-        <v>10002</v>
+        <v>9942</v>
       </c>
       <c r="F29">
-        <v>10442</v>
+        <v>10186</v>
       </c>
       <c r="G29">
-        <v>40291</v>
+        <v>41840</v>
       </c>
       <c r="H29">
-        <v>172151</v>
+        <v>109030</v>
       </c>
       <c r="I29">
-        <v>3480</v>
+        <v>2298</v>
       </c>
       <c r="J29">
-        <v>34656</v>
+        <v>6041</v>
       </c>
       <c r="K29">
-        <v>6376</v>
+        <v>2645</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>28217</v>
+        <v>14328</v>
       </c>
       <c r="O29">
-        <v>111041</v>
+        <v>42420</v>
       </c>
       <c r="P29">
-        <v>44105</v>
+        <v>8686</v>
       </c>
       <c r="Q29">
-        <v>198</v>
+        <v>473</v>
       </c>
       <c r="R29">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>61110</v>
+        <v>66610</v>
       </c>
       <c r="U29">
-        <v>2779</v>
+        <v>2611</v>
       </c>
       <c r="V29">
-        <v>4889</v>
+        <v>4678</v>
       </c>
       <c r="W29">
-        <v>-1895</v>
+        <v>-1981</v>
       </c>
       <c r="X29">
-        <v>-1711</v>
+        <v>-4252</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-2478</v>
+        <v>445</v>
       </c>
       <c r="AA29">
-        <v>2840</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>12274</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>13703</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>8221</v>
+        <v>9843</v>
       </c>
       <c r="F30">
-        <v>10891</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>41142</v>
+        <v>46849</v>
       </c>
       <c r="H30">
-        <v>171797</v>
+        <v>115268</v>
       </c>
       <c r="I30">
-        <v>4656</v>
+        <v>2270</v>
       </c>
       <c r="J30">
-        <v>33715</v>
+        <v>7314</v>
       </c>
       <c r="K30">
-        <v>6407</v>
+        <v>4801</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>30427</v>
+        <v>21835</v>
       </c>
       <c r="O30">
-        <v>100141</v>
+        <v>50144</v>
       </c>
       <c r="P30">
-        <v>43669</v>
+        <v>13139</v>
       </c>
       <c r="Q30">
-        <v>-1428</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>90200</v>
+        <v>86600</v>
       </c>
       <c r="T30">
-        <v>71656</v>
+        <v>65124</v>
       </c>
       <c r="U30">
-        <v>1342</v>
+        <v>3406</v>
       </c>
       <c r="V30">
-        <v>7089</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>-1909</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-3743</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-4138</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>12274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>3561</v>
+        <v>2784</v>
       </c>
       <c r="D31">
-        <v>12906</v>
+        <v>11848</v>
       </c>
       <c r="E31">
-        <v>9452</v>
+        <v>10432</v>
       </c>
       <c r="F31">
-        <v>10369</v>
+        <v>10000</v>
       </c>
       <c r="G31">
-        <v>34835</v>
+        <v>51011</v>
       </c>
       <c r="H31">
-        <v>164612</v>
+        <v>118550</v>
       </c>
       <c r="I31">
-        <v>3879</v>
+        <v>1909</v>
       </c>
       <c r="J31">
-        <v>32255</v>
+        <v>8143</v>
       </c>
       <c r="K31">
-        <v>4247</v>
+        <v>8909</v>
       </c>
       <c r="L31">
-        <v>-2576</v>
+        <v>-1955</v>
       </c>
       <c r="M31">
-        <v>-355</v>
+        <v>-561</v>
       </c>
       <c r="N31">
-        <v>27365</v>
+        <v>21682</v>
       </c>
       <c r="O31">
-        <v>94070</v>
+        <v>50990</v>
       </c>
       <c r="P31">
-        <v>41267</v>
+        <v>17052</v>
       </c>
       <c r="Q31">
-        <v>985</v>
+        <v>-1393</v>
       </c>
       <c r="R31">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>70542</v>
+        <v>67560</v>
       </c>
       <c r="U31">
-        <v>2302</v>
+        <v>2013</v>
       </c>
       <c r="V31">
-        <v>1983</v>
+        <v>3271</v>
       </c>
       <c r="W31">
-        <v>-2032</v>
+        <v>-2138</v>
       </c>
       <c r="X31">
-        <v>-10720</v>
+        <v>848</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>10028</v>
+        <v>-4287</v>
       </c>
       <c r="AA31">
-        <v>3561</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>3871</v>
+        <v>2776</v>
       </c>
       <c r="D32">
-        <v>13466</v>
+        <v>12129</v>
       </c>
       <c r="E32">
-        <v>9873</v>
+        <v>10245</v>
       </c>
       <c r="F32">
-        <v>10588</v>
+        <v>10050</v>
       </c>
       <c r="G32">
-        <v>37303</v>
+        <v>48651</v>
       </c>
       <c r="H32">
-        <v>164980</v>
+        <v>116515</v>
       </c>
       <c r="I32">
-        <v>4196</v>
+        <v>1928</v>
       </c>
       <c r="J32">
-        <v>29434</v>
+        <v>7246</v>
       </c>
       <c r="K32">
-        <v>7321</v>
+        <v>9448</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>32156</v>
+        <v>23193</v>
       </c>
       <c r="O32">
-        <v>94857</v>
+        <v>49797</v>
       </c>
       <c r="P32">
-        <v>41028</v>
+        <v>16694</v>
       </c>
       <c r="Q32">
-        <v>396</v>
+        <v>-1193</v>
       </c>
       <c r="R32">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>70123</v>
+        <v>66718</v>
       </c>
       <c r="U32">
-        <v>2704</v>
+        <v>820</v>
       </c>
       <c r="V32">
-        <v>3847</v>
+        <v>5042</v>
       </c>
       <c r="W32">
-        <v>-1989</v>
+        <v>-2139</v>
       </c>
       <c r="X32">
-        <v>-1908</v>
+        <v>-2777</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-1131</v>
+        <v>-2580</v>
       </c>
       <c r="AA32">
-        <v>3872</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>4114</v>
+        <v>2278</v>
       </c>
       <c r="D33">
-        <v>13298</v>
+        <v>11973</v>
       </c>
       <c r="E33">
-        <v>10024</v>
+        <v>9901</v>
       </c>
       <c r="F33">
-        <v>10626</v>
+        <v>10023</v>
       </c>
       <c r="G33">
-        <v>41583</v>
+        <v>48227</v>
       </c>
       <c r="H33">
-        <v>167838</v>
+        <v>115249</v>
       </c>
       <c r="I33">
-        <v>4297</v>
+        <v>1649</v>
       </c>
       <c r="J33">
-        <v>34305</v>
+        <v>7152</v>
       </c>
       <c r="K33">
-        <v>3130</v>
+        <v>9193</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>29013</v>
+        <v>21503</v>
       </c>
       <c r="O33">
-        <v>96174</v>
+        <v>47758</v>
       </c>
       <c r="P33">
-        <v>41699</v>
+        <v>16345</v>
       </c>
       <c r="Q33">
-        <v>846</v>
+        <v>445</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>71664</v>
+        <v>67491</v>
       </c>
       <c r="U33">
-        <v>3559</v>
+        <v>1265</v>
       </c>
       <c r="V33">
-        <v>5259</v>
+        <v>3952</v>
       </c>
       <c r="W33">
-        <v>-1994</v>
+        <v>-2132</v>
       </c>
       <c r="X33">
-        <v>-1406</v>
+        <v>-2378</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-2453</v>
+        <v>487</v>
       </c>
       <c r="AA33">
-        <v>4114</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-393</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>13977</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>8025</v>
+        <v>8958</v>
       </c>
       <c r="F34">
-        <v>10936</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>49926</v>
+        <v>43076</v>
       </c>
       <c r="H34">
-        <v>159422</v>
+        <v>111148</v>
       </c>
       <c r="I34">
-        <v>4674</v>
+        <v>1751</v>
       </c>
       <c r="J34">
-        <v>33287</v>
+        <v>7970</v>
       </c>
       <c r="K34">
-        <v>4055</v>
+        <v>8383</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>31858</v>
+        <v>27009</v>
       </c>
       <c r="O34">
-        <v>95664</v>
+        <v>53408</v>
       </c>
       <c r="P34">
-        <v>42123</v>
+        <v>17290</v>
       </c>
       <c r="Q34">
-        <v>-2432</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>92400</v>
+        <v>81800</v>
       </c>
       <c r="T34">
-        <v>63758</v>
+        <v>57740</v>
       </c>
       <c r="U34">
-        <v>1139</v>
+        <v>2122</v>
       </c>
       <c r="V34">
-        <v>4738</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>-1963</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-6407</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>3884</v>
+        <v>2729</v>
       </c>
       <c r="D35">
-        <v>13118</v>
+        <v>10867</v>
       </c>
       <c r="E35">
-        <v>9599</v>
+        <v>9596</v>
       </c>
       <c r="F35">
-        <v>10707</v>
+        <v>9535</v>
       </c>
       <c r="G35">
-        <v>45290</v>
+        <v>54253</v>
       </c>
       <c r="H35">
-        <v>155421</v>
+        <v>122932</v>
       </c>
       <c r="I35">
-        <v>4156</v>
+        <v>1573</v>
       </c>
       <c r="J35">
-        <v>35911</v>
+        <v>21064</v>
       </c>
       <c r="K35">
-        <v>4939</v>
+        <v>7613</v>
       </c>
       <c r="L35">
-        <v>-1766</v>
+        <v>-12100</v>
       </c>
       <c r="M35">
-        <v>-3004</v>
+        <v>-303</v>
       </c>
       <c r="N35">
-        <v>29423</v>
+        <v>23340</v>
       </c>
       <c r="O35">
-        <v>96263</v>
+        <v>62491</v>
       </c>
       <c r="P35">
-        <v>46619</v>
+        <v>28677</v>
       </c>
       <c r="Q35">
-        <v>792</v>
+        <v>-875</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>59158</v>
+        <v>60441</v>
       </c>
       <c r="U35">
-        <v>1937</v>
+        <v>1247</v>
       </c>
       <c r="V35">
-        <v>1698</v>
+        <v>3147</v>
       </c>
       <c r="W35">
-        <v>-2045</v>
+        <v>-2133</v>
       </c>
       <c r="X35">
-        <v>-8467</v>
+        <v>9635</v>
       </c>
       <c r="Y35">
-        <v>1043</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>8100</v>
+        <v>-13566</v>
       </c>
       <c r="AA35">
-        <v>3884</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>5045</v>
+        <v>2261</v>
       </c>
       <c r="D36">
-        <v>13264</v>
+        <v>10984</v>
       </c>
       <c r="E36">
-        <v>9793</v>
+        <v>10446</v>
       </c>
       <c r="F36">
-        <v>10714</v>
+        <v>9273</v>
       </c>
       <c r="G36">
-        <v>47073</v>
+        <v>71550</v>
       </c>
       <c r="H36">
-        <v>156199</v>
+        <v>139339</v>
       </c>
       <c r="I36">
-        <v>4002</v>
+        <v>2595</v>
       </c>
       <c r="J36">
-        <v>36168</v>
+        <v>31864</v>
       </c>
       <c r="K36">
-        <v>8368</v>
+        <v>7645</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>32030</v>
+        <v>26109</v>
       </c>
       <c r="O36">
-        <v>96274</v>
+        <v>76104</v>
       </c>
       <c r="P36">
-        <v>47965</v>
+        <v>39509</v>
       </c>
       <c r="Q36">
-        <v>-180</v>
+        <v>997</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>59925</v>
+        <v>63235</v>
       </c>
       <c r="U36">
-        <v>1784</v>
+        <v>2244</v>
       </c>
       <c r="V36">
-        <v>2611</v>
+        <v>4514</v>
       </c>
       <c r="W36">
-        <v>-2002</v>
+        <v>-1067</v>
       </c>
       <c r="X36">
-        <v>-851</v>
+        <v>9408</v>
       </c>
       <c r="Y36">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-1426</v>
+        <v>-12865</v>
       </c>
       <c r="AA36">
-        <v>5046</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43737</v>
+        <v>40083</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>7680</v>
+        <v>2878</v>
       </c>
       <c r="D37">
-        <v>12680</v>
+        <v>11621</v>
       </c>
       <c r="E37">
-        <v>9439</v>
+        <v>10552</v>
       </c>
       <c r="F37">
-        <v>10225</v>
+        <v>9855</v>
       </c>
       <c r="G37">
-        <v>33459</v>
+        <v>73784</v>
       </c>
       <c r="H37">
-        <v>170446</v>
+        <v>141294</v>
       </c>
       <c r="I37">
-        <v>3942</v>
+        <v>2481</v>
       </c>
       <c r="J37">
-        <v>36044</v>
+        <v>32402</v>
       </c>
       <c r="K37">
-        <v>14186</v>
+        <v>6954</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>36974</v>
+        <v>23992</v>
       </c>
       <c r="O37">
-        <v>105051</v>
+        <v>75044</v>
       </c>
       <c r="P37">
-        <v>53979</v>
+        <v>39356</v>
       </c>
       <c r="Q37">
-        <v>1008</v>
+        <v>1990</v>
       </c>
       <c r="R37">
-        <v>43737</v>
+        <v>40083</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>65395</v>
+        <v>66250</v>
       </c>
       <c r="U37">
-        <v>2785</v>
+        <v>4234</v>
       </c>
       <c r="V37">
-        <v>4510</v>
+        <v>4101</v>
       </c>
       <c r="W37">
-        <v>-2004</v>
+        <v>-1068</v>
       </c>
       <c r="X37">
-        <v>3273</v>
+        <v>-1828</v>
       </c>
       <c r="Y37">
-        <v>1037</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>4798</v>
+        <v>-199</v>
       </c>
       <c r="AA37">
-        <v>7680</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-336</v>
+        <v>767</v>
       </c>
       <c r="D38">
-        <v>12688</v>
+        <v>16537</v>
       </c>
       <c r="E38">
-        <v>8724</v>
+        <v>14645</v>
       </c>
       <c r="F38">
-        <v>10092</v>
+        <v>12633</v>
       </c>
       <c r="G38">
-        <v>32803</v>
+        <v>61670</v>
       </c>
       <c r="H38">
-        <v>167489</v>
+        <v>212949</v>
       </c>
       <c r="I38">
-        <v>4220</v>
+        <v>4370</v>
       </c>
       <c r="J38">
-        <v>35955</v>
+        <v>43218</v>
       </c>
       <c r="K38">
-        <v>14733</v>
+        <v>5442</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>37304</v>
+        <v>37225</v>
       </c>
       <c r="O38">
-        <v>104043</v>
+        <v>122503</v>
       </c>
       <c r="P38">
-        <v>53474</v>
+        <v>48687</v>
       </c>
       <c r="Q38">
-        <v>-1495</v>
+        <v>-2256</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>88300</v>
+        <v>116500</v>
       </c>
       <c r="T38">
-        <v>63446</v>
+        <v>90446</v>
       </c>
       <c r="U38">
-        <v>1305</v>
+        <v>1978</v>
       </c>
       <c r="V38">
-        <v>3769</v>
+        <v>4825</v>
       </c>
       <c r="W38">
-        <v>-1992</v>
+        <v>-1280</v>
       </c>
       <c r="X38">
-        <v>-2440</v>
+        <v>-2734</v>
       </c>
       <c r="Y38">
-        <v>1048</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-2168</v>
+        <v>39054</v>
       </c>
       <c r="AA38">
-        <v>-336</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43919</v>
+        <v>40272</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>3401</v>
+        <v>2026</v>
       </c>
       <c r="D39">
-        <v>12028</v>
+        <v>16576</v>
       </c>
       <c r="E39">
-        <v>9881</v>
+        <v>13611</v>
       </c>
       <c r="F39">
-        <v>9682</v>
+        <v>13737</v>
       </c>
       <c r="G39">
-        <v>34737</v>
+        <v>49916</v>
       </c>
       <c r="H39">
-        <v>166336</v>
+        <v>195113</v>
       </c>
       <c r="I39">
-        <v>3972</v>
+        <v>3028</v>
       </c>
       <c r="J39">
-        <v>36281</v>
+        <v>38354</v>
       </c>
       <c r="K39">
-        <v>15670</v>
+        <v>7769</v>
       </c>
       <c r="L39">
-        <v>-7551</v>
+        <v>-3663</v>
       </c>
       <c r="M39">
-        <v>-2181</v>
+        <v>-9</v>
       </c>
       <c r="N39">
-        <v>33890</v>
+        <v>25924</v>
       </c>
       <c r="O39">
-        <v>100998</v>
+        <v>105031</v>
       </c>
       <c r="P39">
-        <v>52288</v>
+        <v>46123</v>
       </c>
       <c r="Q39">
-        <v>846</v>
+        <v>-219</v>
       </c>
       <c r="R39">
-        <v>43919</v>
+        <v>40272</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>113800</v>
       </c>
       <c r="T39">
-        <v>65338</v>
+        <v>90082</v>
       </c>
       <c r="U39">
-        <v>2151</v>
+        <v>1759</v>
       </c>
       <c r="V39">
-        <v>3133</v>
+        <v>-6360</v>
       </c>
       <c r="W39">
-        <v>-2105</v>
+        <v>-1441</v>
       </c>
       <c r="X39">
-        <v>-2200</v>
+        <v>-3211</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>420</v>
+        <v>9479</v>
       </c>
       <c r="AA39">
-        <v>3401</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44010</v>
+        <v>40363</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>3427</v>
+        <v>2475</v>
       </c>
       <c r="D40">
-        <v>11801</v>
+        <v>17132</v>
       </c>
       <c r="E40">
-        <v>9128</v>
+        <v>14012</v>
       </c>
       <c r="F40">
-        <v>9569</v>
+        <v>14288</v>
       </c>
       <c r="G40">
-        <v>46424</v>
+        <v>51101</v>
       </c>
       <c r="H40">
-        <v>177934</v>
+        <v>191071</v>
       </c>
       <c r="I40">
-        <v>3872</v>
+        <v>3078</v>
       </c>
       <c r="J40">
-        <v>50529</v>
+        <v>37765</v>
       </c>
       <c r="K40">
-        <v>11603</v>
+        <v>5509</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>32723</v>
+        <v>24681</v>
       </c>
       <c r="O40">
-        <v>113370</v>
+        <v>104193</v>
       </c>
       <c r="P40">
-        <v>63613</v>
+        <v>43278</v>
       </c>
       <c r="Q40">
-        <v>-351</v>
+        <v>118</v>
       </c>
       <c r="R40">
-        <v>44010</v>
+        <v>40363</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>112100</v>
       </c>
       <c r="T40">
-        <v>64564</v>
+        <v>86878</v>
       </c>
       <c r="U40">
-        <v>1801</v>
+        <v>1877</v>
       </c>
       <c r="V40">
-        <v>3555</v>
+        <v>4873</v>
       </c>
       <c r="W40">
-        <v>-2111</v>
+        <v>-1554</v>
       </c>
       <c r="X40">
-        <v>9159</v>
+        <v>-4361</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-12547</v>
+        <v>-287</v>
       </c>
       <c r="AA40">
-        <v>3426</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44101</v>
+        <v>40454</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>2194</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>12131</v>
+        <v>15995</v>
       </c>
       <c r="E41">
-        <v>10012</v>
+        <v>14302</v>
       </c>
       <c r="F41">
-        <v>9634</v>
+        <v>13145</v>
       </c>
       <c r="G41">
-        <v>47739</v>
+        <v>54089</v>
       </c>
       <c r="H41">
-        <v>178983</v>
+        <v>191415</v>
       </c>
       <c r="I41">
-        <v>4141</v>
+        <v>3206</v>
       </c>
       <c r="J41">
-        <v>49785</v>
+        <v>39010</v>
       </c>
       <c r="K41">
-        <v>11214</v>
+        <v>5158</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>34154</v>
+        <v>24172</v>
       </c>
       <c r="O41">
-        <v>113488</v>
+        <v>103347</v>
       </c>
       <c r="P41">
-        <v>63148</v>
+        <v>44173</v>
       </c>
       <c r="Q41">
-        <v>-218</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>44101</v>
+        <v>40454</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>111500</v>
       </c>
       <c r="T41">
-        <v>65495</v>
+        <v>88068</v>
       </c>
       <c r="U41">
-        <v>1587</v>
+        <v>2176</v>
       </c>
       <c r="V41">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-2821</v>
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>2194</v>
+        <v>866</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2890</v>
       </c>
       <c r="D42">
+        <v>17354</v>
+      </c>
+      <c r="E42">
+        <v>13380</v>
+      </c>
+      <c r="F42">
+        <v>10788</v>
+      </c>
+      <c r="G42">
+        <v>61013</v>
+      </c>
+      <c r="H42">
+        <v>195014</v>
+      </c>
+      <c r="I42">
+        <v>3994</v>
+      </c>
+      <c r="J42">
+        <v>38411</v>
+      </c>
+      <c r="K42">
+        <v>2101</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>28636</v>
+      </c>
+      <c r="O42">
+        <v>106749</v>
+      </c>
+      <c r="P42">
+        <v>44017</v>
+      </c>
+      <c r="Q42">
+        <v>-441</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>110600</v>
+      </c>
+      <c r="T42">
+        <v>88265</v>
+      </c>
+      <c r="U42">
+        <v>1735</v>
+      </c>
+      <c r="V42">
+        <v>6258</v>
+      </c>
+      <c r="W42">
+        <v>-1544</v>
+      </c>
+      <c r="X42">
+        <v>-1079</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-5600</v>
+      </c>
+      <c r="AA42">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40636</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>2222</v>
+      </c>
+      <c r="D43">
+        <v>16024</v>
+      </c>
+      <c r="E43">
+        <v>15182</v>
+      </c>
+      <c r="F43">
+        <v>12724</v>
+      </c>
+      <c r="G43">
+        <v>58244</v>
+      </c>
+      <c r="H43">
+        <v>194956</v>
+      </c>
+      <c r="I43">
+        <v>3750</v>
+      </c>
+      <c r="J43">
+        <v>35313</v>
+      </c>
+      <c r="K43">
+        <v>6093</v>
+      </c>
+      <c r="L43">
+        <v>-2220</v>
+      </c>
+      <c r="M43">
+        <v>-3878</v>
+      </c>
+      <c r="N43">
+        <v>29171</v>
+      </c>
+      <c r="O43">
+        <v>104423</v>
+      </c>
+      <c r="P43">
+        <v>41408</v>
+      </c>
+      <c r="Q43">
+        <v>-1005</v>
+      </c>
+      <c r="R43">
+        <v>40636</v>
+      </c>
+      <c r="S43">
+        <v>112400</v>
+      </c>
+      <c r="T43">
+        <v>90533</v>
+      </c>
+      <c r="U43">
+        <v>730</v>
+      </c>
+      <c r="V43">
+        <v>4642</v>
+      </c>
+      <c r="W43">
+        <v>-1591</v>
+      </c>
+      <c r="X43">
+        <v>-6404</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>4140</v>
+      </c>
+      <c r="AA43">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40727</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>2610</v>
+      </c>
+      <c r="D44">
+        <v>16485</v>
+      </c>
+      <c r="E44">
+        <v>15192</v>
+      </c>
+      <c r="F44">
+        <v>13083</v>
+      </c>
+      <c r="G44">
+        <v>60484</v>
+      </c>
+      <c r="H44">
+        <v>195899</v>
+      </c>
+      <c r="I44">
+        <v>3698</v>
+      </c>
+      <c r="J44">
+        <v>35728</v>
+      </c>
+      <c r="K44">
+        <v>5988</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>30471</v>
+      </c>
+      <c r="O44">
+        <v>106936</v>
+      </c>
+      <c r="P44">
+        <v>41716</v>
+      </c>
+      <c r="Q44">
+        <v>2366</v>
+      </c>
+      <c r="R44">
+        <v>40727</v>
+      </c>
+      <c r="S44">
+        <v>111800</v>
+      </c>
+      <c r="T44">
+        <v>88963</v>
+      </c>
+      <c r="U44">
+        <v>3096</v>
+      </c>
+      <c r="V44">
+        <v>5898</v>
+      </c>
+      <c r="W44">
+        <v>-1568</v>
+      </c>
+      <c r="X44">
+        <v>-3918</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>650</v>
+      </c>
+      <c r="AA44">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40818</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>16609</v>
+      </c>
+      <c r="E45">
+        <v>15749</v>
+      </c>
+      <c r="F45">
+        <v>13268</v>
+      </c>
+      <c r="G45">
+        <v>62732</v>
+      </c>
+      <c r="H45">
+        <v>196132</v>
+      </c>
+      <c r="I45">
+        <v>3765</v>
+      </c>
+      <c r="J45">
+        <v>35414</v>
+      </c>
+      <c r="K45">
+        <v>5637</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>27856</v>
+      </c>
+      <c r="O45">
+        <v>105602</v>
+      </c>
+      <c r="P45">
+        <v>41051</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>40818</v>
+      </c>
+      <c r="S45">
+        <v>106500</v>
+      </c>
+      <c r="T45">
+        <v>90530</v>
+      </c>
+      <c r="U45">
+        <v>3706</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1439</v>
+      </c>
+      <c r="D46">
+        <v>16141</v>
+      </c>
+      <c r="E46">
+        <v>13058</v>
+      </c>
+      <c r="F46">
+        <v>12917</v>
+      </c>
+      <c r="G46">
+        <v>60817</v>
+      </c>
+      <c r="H46">
+        <v>188002</v>
+      </c>
+      <c r="I46">
+        <v>3678</v>
+      </c>
+      <c r="J46">
+        <v>34940</v>
+      </c>
+      <c r="K46">
+        <v>4010</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>28909</v>
+      </c>
+      <c r="O46">
+        <v>105381</v>
+      </c>
+      <c r="P46">
+        <v>38956</v>
+      </c>
+      <c r="Q46">
+        <v>-524</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>103700</v>
+      </c>
+      <c r="T46">
+        <v>82621</v>
+      </c>
+      <c r="U46">
+        <v>3182</v>
+      </c>
+      <c r="V46">
+        <v>5261</v>
+      </c>
+      <c r="W46">
+        <v>-1524</v>
+      </c>
+      <c r="X46">
+        <v>-6250</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1363</v>
+      </c>
+      <c r="AA46">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1794</v>
+      </c>
+      <c r="D47">
+        <v>13845</v>
+      </c>
+      <c r="E47">
+        <v>14182</v>
+      </c>
+      <c r="F47">
+        <v>11538</v>
+      </c>
+      <c r="G47">
+        <v>54863</v>
+      </c>
+      <c r="H47">
+        <v>185683</v>
+      </c>
+      <c r="I47">
+        <v>3091</v>
+      </c>
+      <c r="J47">
+        <v>33569</v>
+      </c>
+      <c r="K47">
+        <v>5526</v>
+      </c>
+      <c r="L47">
+        <v>-1791</v>
+      </c>
+      <c r="M47">
+        <v>-3</v>
+      </c>
+      <c r="N47">
+        <v>27094</v>
+      </c>
+      <c r="O47">
+        <v>102006</v>
+      </c>
+      <c r="P47">
+        <v>39095</v>
+      </c>
+      <c r="Q47">
+        <v>-248</v>
+      </c>
+      <c r="R47">
+        <v>41000</v>
+      </c>
+      <c r="S47">
+        <v>102500</v>
+      </c>
+      <c r="T47">
+        <v>83677</v>
+      </c>
+      <c r="U47">
+        <v>2934</v>
+      </c>
+      <c r="V47">
+        <v>2774</v>
+      </c>
+      <c r="W47">
+        <v>-1650</v>
+      </c>
+      <c r="X47">
+        <v>-3507</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>1516</v>
+      </c>
+      <c r="AA47">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>3253</v>
+      </c>
+      <c r="D48">
+        <v>13968</v>
+      </c>
+      <c r="E48">
+        <v>12882</v>
+      </c>
+      <c r="F48">
+        <v>11650</v>
+      </c>
+      <c r="G48">
+        <v>58765</v>
+      </c>
+      <c r="H48">
+        <v>182842</v>
+      </c>
+      <c r="I48">
+        <v>3165</v>
+      </c>
+      <c r="J48">
+        <v>30888</v>
+      </c>
+      <c r="K48">
+        <v>7703</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>30798</v>
+      </c>
+      <c r="O48">
+        <v>102881</v>
+      </c>
+      <c r="P48">
+        <v>38591</v>
+      </c>
+      <c r="Q48">
+        <v>97</v>
+      </c>
+      <c r="R48">
+        <v>41091</v>
+      </c>
+      <c r="S48">
+        <v>101000</v>
+      </c>
+      <c r="T48">
+        <v>79961</v>
+      </c>
+      <c r="U48">
+        <v>3031</v>
+      </c>
+      <c r="V48">
+        <v>4021</v>
+      </c>
+      <c r="W48">
+        <v>-1633</v>
+      </c>
+      <c r="X48">
+        <v>-2968</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-566</v>
+      </c>
+      <c r="AA48">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>3208</v>
+      </c>
+      <c r="D49">
+        <v>12953</v>
+      </c>
+      <c r="E49">
+        <v>12523</v>
+      </c>
+      <c r="F49">
+        <v>10737</v>
+      </c>
+      <c r="G49">
+        <v>57127</v>
+      </c>
+      <c r="H49">
+        <v>182603</v>
+      </c>
+      <c r="I49">
+        <v>2967</v>
+      </c>
+      <c r="J49">
+        <v>31112</v>
+      </c>
+      <c r="K49">
+        <v>7774</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>29131</v>
+      </c>
+      <c r="O49">
+        <v>100488</v>
+      </c>
+      <c r="P49">
+        <v>38886</v>
+      </c>
+      <c r="Q49">
+        <v>1475</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>98800</v>
+      </c>
+      <c r="T49">
+        <v>82115</v>
+      </c>
+      <c r="U49">
+        <v>4506</v>
+      </c>
+      <c r="V49">
+        <v>5003</v>
+      </c>
+      <c r="W49">
+        <v>-1632</v>
+      </c>
+      <c r="X49">
+        <v>-3291</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-14</v>
+      </c>
+      <c r="AA49">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>6315</v>
+      </c>
+      <c r="D50">
+        <v>13891</v>
+      </c>
+      <c r="E50">
+        <v>10675</v>
+      </c>
+      <c r="F50">
+        <v>11199</v>
+      </c>
+      <c r="G50">
+        <v>64831</v>
+      </c>
+      <c r="H50">
+        <v>185798</v>
+      </c>
+      <c r="I50">
+        <v>2921</v>
+      </c>
+      <c r="J50">
+        <v>31069</v>
+      </c>
+      <c r="K50">
+        <v>3975</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>29186</v>
+      </c>
+      <c r="O50">
+        <v>104120</v>
+      </c>
+      <c r="P50">
+        <v>37493</v>
+      </c>
+      <c r="Q50">
+        <v>5575</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>91500</v>
+      </c>
+      <c r="T50">
+        <v>81678</v>
+      </c>
+      <c r="U50">
+        <v>10081</v>
+      </c>
+      <c r="V50">
+        <v>4948</v>
+      </c>
+      <c r="W50">
+        <v>-1619</v>
+      </c>
+      <c r="X50">
+        <v>-6233</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-4348</v>
+      </c>
+      <c r="AA50">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>2750</v>
+      </c>
+      <c r="D51">
+        <v>12410</v>
+      </c>
+      <c r="E51">
+        <v>12735</v>
+      </c>
+      <c r="F51">
+        <v>10186</v>
+      </c>
+      <c r="G51">
+        <v>64763</v>
+      </c>
+      <c r="H51">
+        <v>187398</v>
+      </c>
+      <c r="I51">
+        <v>3279</v>
+      </c>
+      <c r="J51">
+        <v>31507</v>
+      </c>
+      <c r="K51">
+        <v>8896</v>
+      </c>
+      <c r="L51">
+        <v>-1031</v>
+      </c>
+      <c r="M51">
+        <v>-2</v>
+      </c>
+      <c r="N51">
+        <v>27543</v>
+      </c>
+      <c r="O51">
+        <v>104571</v>
+      </c>
+      <c r="P51">
+        <v>40403</v>
+      </c>
+      <c r="Q51">
+        <v>-8189</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>89400</v>
+      </c>
+      <c r="T51">
+        <v>82827</v>
+      </c>
+      <c r="U51">
+        <v>2134</v>
+      </c>
+      <c r="V51">
+        <v>2303</v>
+      </c>
+      <c r="W51">
+        <v>-1735</v>
+      </c>
+      <c r="X51">
+        <v>434</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-10754</v>
+      </c>
+      <c r="AA51">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>14095</v>
+      </c>
+      <c r="D52">
+        <v>12973</v>
+      </c>
+      <c r="E52">
+        <v>11523</v>
+      </c>
+      <c r="F52">
+        <v>10794</v>
+      </c>
+      <c r="G52">
+        <v>61435</v>
+      </c>
+      <c r="H52">
+        <v>179335</v>
+      </c>
+      <c r="I52">
+        <v>1978</v>
+      </c>
+      <c r="J52">
+        <v>31728</v>
+      </c>
+      <c r="K52">
+        <v>5214</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>23450</v>
+      </c>
+      <c r="O52">
+        <v>100358</v>
+      </c>
+      <c r="P52">
+        <v>36942</v>
+      </c>
+      <c r="Q52">
+        <v>544</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>79000</v>
+      </c>
+      <c r="T52">
+        <v>78977</v>
+      </c>
+      <c r="U52">
+        <v>2436</v>
+      </c>
+      <c r="V52">
+        <v>3757</v>
+      </c>
+      <c r="W52">
+        <v>-1701</v>
+      </c>
+      <c r="X52">
+        <v>-4034</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1153</v>
+      </c>
+      <c r="AA52">
+        <v>14095</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41546</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>2590</v>
+      </c>
+      <c r="D53">
+        <v>12643</v>
+      </c>
+      <c r="E53">
+        <v>11371</v>
+      </c>
+      <c r="F53">
+        <v>10461</v>
+      </c>
+      <c r="G53">
+        <v>59500</v>
+      </c>
+      <c r="H53">
+        <v>175521</v>
+      </c>
+      <c r="I53">
+        <v>2287</v>
+      </c>
+      <c r="J53">
+        <v>32012</v>
+      </c>
+      <c r="K53">
+        <v>4738</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>20373</v>
+      </c>
+      <c r="O53">
+        <v>97167</v>
+      </c>
+      <c r="P53">
+        <v>36750</v>
+      </c>
+      <c r="Q53">
+        <v>-384</v>
+      </c>
+      <c r="R53">
+        <v>41546</v>
+      </c>
+      <c r="S53">
+        <v>78400</v>
+      </c>
+      <c r="T53">
+        <v>78354</v>
+      </c>
+      <c r="U53">
+        <v>2052</v>
+      </c>
+      <c r="V53">
+        <v>5900</v>
+      </c>
+      <c r="W53">
+        <v>-1590</v>
+      </c>
+      <c r="X53">
+        <v>-5631</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-298</v>
+      </c>
+      <c r="AA53">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>2568</v>
+      </c>
+      <c r="D54">
+        <v>13558</v>
+      </c>
+      <c r="E54">
+        <v>9357</v>
+      </c>
+      <c r="F54">
+        <v>10893</v>
+      </c>
+      <c r="G54">
+        <v>56244</v>
+      </c>
+      <c r="H54">
+        <v>172101</v>
+      </c>
+      <c r="I54">
+        <v>3234</v>
+      </c>
+      <c r="J54">
+        <v>30763</v>
+      </c>
+      <c r="K54">
+        <v>3967</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>23366</v>
+      </c>
+      <c r="O54">
+        <v>95481</v>
+      </c>
+      <c r="P54">
+        <v>36790</v>
+      </c>
+      <c r="Q54">
+        <v>131</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>77700</v>
+      </c>
+      <c r="T54">
+        <v>76620</v>
+      </c>
+      <c r="U54">
+        <v>2183</v>
+      </c>
+      <c r="V54">
+        <v>5724</v>
+      </c>
+      <c r="W54">
+        <v>-1554</v>
+      </c>
+      <c r="X54">
+        <v>-5744</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>523</v>
+      </c>
+      <c r="AA54">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>2329</v>
+      </c>
+      <c r="D55">
+        <v>11353</v>
+      </c>
+      <c r="E55">
+        <v>9399</v>
+      </c>
+      <c r="F55">
+        <v>9436</v>
+      </c>
+      <c r="G55">
+        <v>57793</v>
+      </c>
+      <c r="H55">
+        <v>171808</v>
+      </c>
+      <c r="I55">
+        <v>2546</v>
+      </c>
+      <c r="J55">
+        <v>27835</v>
+      </c>
+      <c r="K55">
+        <v>9319</v>
+      </c>
+      <c r="L55">
+        <v>-3</v>
+      </c>
+      <c r="M55">
+        <v>-752</v>
+      </c>
+      <c r="N55">
+        <v>24790</v>
+      </c>
+      <c r="O55">
+        <v>93740</v>
+      </c>
+      <c r="P55">
+        <v>37155</v>
+      </c>
+      <c r="Q55">
+        <v>679</v>
+      </c>
+      <c r="R55">
+        <v>41728</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>78068</v>
+      </c>
+      <c r="U55">
+        <v>2862</v>
+      </c>
+      <c r="V55">
+        <v>2935</v>
+      </c>
+      <c r="W55">
+        <v>-1662</v>
+      </c>
+      <c r="X55">
+        <v>-2133</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-6</v>
+      </c>
+      <c r="AA55">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>12773</v>
+      </c>
+      <c r="E56">
+        <v>10388</v>
+      </c>
+      <c r="F56">
+        <v>10467</v>
+      </c>
+      <c r="G56">
+        <v>58287</v>
+      </c>
+      <c r="H56">
+        <v>172612</v>
+      </c>
+      <c r="I56">
+        <v>2990</v>
+      </c>
+      <c r="J56">
+        <v>32355</v>
+      </c>
+      <c r="K56">
+        <v>5561</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>21938</v>
+      </c>
+      <c r="O56">
+        <v>95656</v>
+      </c>
+      <c r="P56">
+        <v>37918</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>41819</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>76956</v>
+      </c>
+      <c r="U56">
+        <v>3406</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>2666</v>
+      </c>
+      <c r="D57">
+        <v>12361</v>
+      </c>
+      <c r="E57">
+        <v>9955</v>
+      </c>
+      <c r="F57">
+        <v>10126</v>
+      </c>
+      <c r="G57">
+        <v>56987</v>
+      </c>
+      <c r="H57">
+        <v>171362</v>
+      </c>
+      <c r="I57">
+        <v>2973</v>
+      </c>
+      <c r="J57">
+        <v>31729</v>
+      </c>
+      <c r="K57">
+        <v>5389</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>19920</v>
+      </c>
+      <c r="O57">
+        <v>93057</v>
+      </c>
+      <c r="P57">
+        <v>37120</v>
+      </c>
+      <c r="Q57">
+        <v>-968</v>
+      </c>
+      <c r="R57">
+        <v>41910</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>78305</v>
+      </c>
+      <c r="U57">
+        <v>2437</v>
+      </c>
+      <c r="V57">
+        <v>4463</v>
+      </c>
+      <c r="W57">
+        <v>-1650</v>
+      </c>
+      <c r="X57">
+        <v>-2887</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-1816</v>
+      </c>
+      <c r="AA57">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>1228</v>
+      </c>
+      <c r="D58">
+        <v>13118</v>
+      </c>
+      <c r="E58">
+        <v>8401</v>
+      </c>
+      <c r="F58">
+        <v>10543</v>
+      </c>
+      <c r="G58">
+        <v>55595</v>
+      </c>
+      <c r="H58">
+        <v>167566</v>
+      </c>
+      <c r="I58">
+        <v>3210</v>
+      </c>
+      <c r="J58">
+        <v>31557</v>
+      </c>
+      <c r="K58">
+        <v>2130</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>21587</v>
+      </c>
+      <c r="O58">
+        <v>95944</v>
+      </c>
+      <c r="P58">
+        <v>36699</v>
+      </c>
+      <c r="Q58">
+        <v>905</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>78300</v>
+      </c>
+      <c r="T58">
+        <v>71622</v>
+      </c>
+      <c r="U58">
+        <v>3343</v>
+      </c>
+      <c r="V58">
+        <v>5398</v>
+      </c>
+      <c r="W58">
+        <v>-1639</v>
+      </c>
+      <c r="X58">
+        <v>-2926</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-1140</v>
+      </c>
+      <c r="AA58">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>2376</v>
+      </c>
+      <c r="D59">
+        <v>10864</v>
+      </c>
+      <c r="E59">
+        <v>8920</v>
+      </c>
+      <c r="F59">
+        <v>9056</v>
+      </c>
+      <c r="G59">
+        <v>49443</v>
+      </c>
+      <c r="H59">
+        <v>160640</v>
+      </c>
+      <c r="I59">
+        <v>2724</v>
+      </c>
+      <c r="J59">
+        <v>29441</v>
+      </c>
+      <c r="K59">
+        <v>6555</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-2998</v>
+      </c>
+      <c r="N59">
+        <v>20222</v>
+      </c>
+      <c r="O59">
+        <v>93053</v>
+      </c>
+      <c r="P59">
+        <v>35997</v>
+      </c>
+      <c r="Q59">
+        <v>220</v>
+      </c>
+      <c r="R59">
+        <v>42092</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>67587</v>
+      </c>
+      <c r="U59">
+        <v>3563</v>
+      </c>
+      <c r="V59">
+        <v>680</v>
+      </c>
+      <c r="W59">
+        <v>-1758</v>
+      </c>
+      <c r="X59">
+        <v>-6978</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>7186</v>
+      </c>
+      <c r="AA59">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>2626</v>
+      </c>
+      <c r="D60">
+        <v>11853</v>
+      </c>
+      <c r="E60">
+        <v>8951</v>
+      </c>
+      <c r="F60">
+        <v>9729</v>
+      </c>
+      <c r="G60">
+        <v>51715</v>
+      </c>
+      <c r="H60">
+        <v>160878</v>
+      </c>
+      <c r="I60">
+        <v>2930</v>
+      </c>
+      <c r="J60">
+        <v>27105</v>
+      </c>
+      <c r="K60">
+        <v>8394</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>24143</v>
+      </c>
+      <c r="O60">
+        <v>93698</v>
+      </c>
+      <c r="P60">
+        <v>35503</v>
+      </c>
+      <c r="Q60">
+        <v>107</v>
+      </c>
+      <c r="R60">
+        <v>42183</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>67180</v>
+      </c>
+      <c r="U60">
+        <v>3670</v>
+      </c>
+      <c r="V60">
+        <v>4090</v>
+      </c>
+      <c r="W60">
+        <v>-1725</v>
+      </c>
+      <c r="X60">
+        <v>-1874</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-1843</v>
+      </c>
+      <c r="AA60">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>2130</v>
+      </c>
+      <c r="D61">
+        <v>12087</v>
+      </c>
+      <c r="E61">
+        <v>9535</v>
+      </c>
+      <c r="F61">
+        <v>9893</v>
+      </c>
+      <c r="G61">
+        <v>45002</v>
+      </c>
+      <c r="H61">
+        <v>170867</v>
+      </c>
+      <c r="I61">
+        <v>3294</v>
+      </c>
+      <c r="J61">
+        <v>29223</v>
+      </c>
+      <c r="K61">
+        <v>9818</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>27845</v>
+      </c>
+      <c r="O61">
+        <v>103743</v>
+      </c>
+      <c r="P61">
+        <v>39054</v>
+      </c>
+      <c r="Q61">
+        <v>-571</v>
+      </c>
+      <c r="R61">
+        <v>42274</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>67124</v>
+      </c>
+      <c r="U61">
+        <v>3099</v>
+      </c>
+      <c r="V61">
+        <v>5020</v>
+      </c>
+      <c r="W61">
+        <v>-1728</v>
+      </c>
+      <c r="X61">
+        <v>-263</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>10712</v>
+      </c>
+      <c r="AA61">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>8176</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>43804</v>
+      </c>
+      <c r="H62">
+        <v>167381</v>
+      </c>
+      <c r="I62">
+        <v>3620</v>
+      </c>
+      <c r="J62">
+        <v>28874</v>
+      </c>
+      <c r="K62">
+        <v>6440</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>29398</v>
+      </c>
+      <c r="O62">
+        <v>102383</v>
+      </c>
+      <c r="P62">
+        <v>39038</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>97900</v>
+      </c>
+      <c r="T62">
+        <v>64998</v>
+      </c>
+      <c r="U62">
+        <v>3641</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42463</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>3038</v>
+      </c>
+      <c r="D63">
+        <v>13005</v>
+      </c>
+      <c r="E63">
+        <v>9033</v>
+      </c>
+      <c r="F63">
+        <v>10434</v>
+      </c>
+      <c r="G63">
+        <v>41298</v>
+      </c>
+      <c r="H63">
+        <v>162929</v>
+      </c>
+      <c r="I63">
+        <v>3125</v>
+      </c>
+      <c r="J63">
+        <v>27828</v>
+      </c>
+      <c r="K63">
+        <v>11546</v>
+      </c>
+      <c r="L63">
+        <v>-1350</v>
+      </c>
+      <c r="M63">
+        <v>-1536</v>
+      </c>
+      <c r="N63">
+        <v>28735</v>
+      </c>
+      <c r="O63">
+        <v>99582</v>
+      </c>
+      <c r="P63">
+        <v>39379</v>
+      </c>
+      <c r="Q63">
+        <v>-1080</v>
+      </c>
+      <c r="R63">
+        <v>42463</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>63347</v>
+      </c>
+      <c r="U63">
+        <v>2561</v>
+      </c>
+      <c r="V63">
+        <v>1808</v>
+      </c>
+      <c r="W63">
+        <v>-1854</v>
+      </c>
+      <c r="X63">
+        <v>-7171</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>4760</v>
+      </c>
+      <c r="AA63">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>2047</v>
+      </c>
+      <c r="D64">
+        <v>13147</v>
+      </c>
+      <c r="E64">
+        <v>9138</v>
+      </c>
+      <c r="F64">
+        <v>10033</v>
+      </c>
+      <c r="G64">
+        <v>43845</v>
+      </c>
+      <c r="H64">
+        <v>170658</v>
+      </c>
+      <c r="I64">
+        <v>3261</v>
+      </c>
+      <c r="J64">
+        <v>30458</v>
+      </c>
+      <c r="K64">
+        <v>13724</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>32099</v>
+      </c>
+      <c r="O64">
+        <v>107592</v>
+      </c>
+      <c r="P64">
+        <v>44185</v>
+      </c>
+      <c r="Q64">
+        <v>850</v>
+      </c>
+      <c r="R64">
+        <v>42554</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>63066</v>
+      </c>
+      <c r="U64">
+        <v>3411</v>
+      </c>
+      <c r="V64">
+        <v>3606</v>
+      </c>
+      <c r="W64">
+        <v>-1821</v>
+      </c>
+      <c r="X64">
+        <v>1918</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>305</v>
+      </c>
+      <c r="AA64">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42645</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>1355</v>
+      </c>
+      <c r="D65">
+        <v>13045</v>
+      </c>
+      <c r="E65">
+        <v>9836</v>
+      </c>
+      <c r="F65">
+        <v>10056</v>
+      </c>
+      <c r="G65">
+        <v>38501</v>
+      </c>
+      <c r="H65">
+        <v>178430</v>
+      </c>
+      <c r="I65">
+        <v>3476</v>
+      </c>
+      <c r="J65">
+        <v>30439</v>
+      </c>
+      <c r="K65">
+        <v>13633</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>34759</v>
+      </c>
+      <c r="O65">
+        <v>114830</v>
+      </c>
+      <c r="P65">
+        <v>44073</v>
+      </c>
+      <c r="Q65">
+        <v>-1317</v>
+      </c>
+      <c r="R65">
+        <v>42645</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>63600</v>
+      </c>
+      <c r="U65">
+        <v>2094</v>
+      </c>
+      <c r="V65">
+        <v>4737</v>
+      </c>
+      <c r="W65">
+        <v>-1821</v>
+      </c>
+      <c r="X65">
+        <v>-1662</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>9079</v>
+      </c>
+      <c r="AA65">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>8225</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>38949</v>
+      </c>
+      <c r="H66">
+        <v>171615</v>
+      </c>
+      <c r="I66">
+        <v>4536</v>
+      </c>
+      <c r="J66">
+        <v>31545</v>
+      </c>
+      <c r="K66">
+        <v>6463</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>31115</v>
+      </c>
+      <c r="O66">
+        <v>111775</v>
+      </c>
+      <c r="P66">
+        <v>42234</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>96500</v>
+      </c>
+      <c r="T66">
+        <v>59840</v>
+      </c>
+      <c r="U66">
+        <v>2595</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42827</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>3121</v>
+      </c>
+      <c r="D67">
+        <v>12779</v>
+      </c>
+      <c r="E67">
+        <v>8892</v>
+      </c>
+      <c r="F67">
+        <v>10340</v>
+      </c>
+      <c r="G67">
+        <v>35879</v>
+      </c>
+      <c r="H67">
+        <v>168784</v>
+      </c>
+      <c r="I67">
+        <v>3393</v>
+      </c>
+      <c r="J67">
+        <v>36556</v>
+      </c>
+      <c r="K67">
+        <v>4388</v>
+      </c>
+      <c r="L67">
+        <v>-4629</v>
+      </c>
+      <c r="M67">
+        <v>-1253</v>
+      </c>
+      <c r="N67">
+        <v>24864</v>
+      </c>
+      <c r="O67">
+        <v>110038</v>
+      </c>
+      <c r="P67">
+        <v>44236</v>
+      </c>
+      <c r="Q67">
+        <v>1465</v>
+      </c>
+      <c r="R67">
+        <v>42827</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>58746</v>
+      </c>
+      <c r="U67">
+        <v>4057</v>
+      </c>
+      <c r="V67">
+        <v>1584</v>
+      </c>
+      <c r="W67">
+        <v>-1945</v>
+      </c>
+      <c r="X67">
+        <v>-4907</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>5413</v>
+      </c>
+      <c r="AA67">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42918</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>3073</v>
+      </c>
+      <c r="D68">
+        <v>12896</v>
+      </c>
+      <c r="E68">
+        <v>9476</v>
+      </c>
+      <c r="F68">
+        <v>10295</v>
+      </c>
+      <c r="G68">
+        <v>36385</v>
+      </c>
+      <c r="H68">
+        <v>168558</v>
+      </c>
+      <c r="I68">
+        <v>3439</v>
+      </c>
+      <c r="J68">
+        <v>34357</v>
+      </c>
+      <c r="K68">
+        <v>6442</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>27182</v>
+      </c>
+      <c r="O68">
+        <v>109864</v>
+      </c>
+      <c r="P68">
+        <v>43871</v>
+      </c>
+      <c r="Q68">
+        <v>-1470</v>
+      </c>
+      <c r="R68">
+        <v>42918</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>58694</v>
+      </c>
+      <c r="U68">
+        <v>2585</v>
+      </c>
+      <c r="V68">
+        <v>3240</v>
+      </c>
+      <c r="W68">
+        <v>-1910</v>
+      </c>
+      <c r="X68">
+        <v>-2989</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-991</v>
+      </c>
+      <c r="AA68">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>2840</v>
+      </c>
+      <c r="D69">
+        <v>13168</v>
+      </c>
+      <c r="E69">
+        <v>10002</v>
+      </c>
+      <c r="F69">
+        <v>10442</v>
+      </c>
+      <c r="G69">
+        <v>40291</v>
+      </c>
+      <c r="H69">
+        <v>172151</v>
+      </c>
+      <c r="I69">
+        <v>3480</v>
+      </c>
+      <c r="J69">
+        <v>34656</v>
+      </c>
+      <c r="K69">
+        <v>6376</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>28217</v>
+      </c>
+      <c r="O69">
+        <v>111041</v>
+      </c>
+      <c r="P69">
+        <v>44105</v>
+      </c>
+      <c r="Q69">
+        <v>198</v>
+      </c>
+      <c r="R69">
+        <v>43009</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>61110</v>
+      </c>
+      <c r="U69">
+        <v>2779</v>
+      </c>
+      <c r="V69">
+        <v>4889</v>
+      </c>
+      <c r="W69">
+        <v>-1895</v>
+      </c>
+      <c r="X69">
+        <v>-1711</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-2478</v>
+      </c>
+      <c r="AA69">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>12274</v>
+      </c>
+      <c r="D70">
+        <v>13703</v>
+      </c>
+      <c r="E70">
+        <v>8221</v>
+      </c>
+      <c r="F70">
+        <v>10891</v>
+      </c>
+      <c r="G70">
+        <v>41142</v>
+      </c>
+      <c r="H70">
+        <v>171797</v>
+      </c>
+      <c r="I70">
+        <v>4656</v>
+      </c>
+      <c r="J70">
+        <v>33715</v>
+      </c>
+      <c r="K70">
+        <v>6407</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>30427</v>
+      </c>
+      <c r="O70">
+        <v>100141</v>
+      </c>
+      <c r="P70">
+        <v>43669</v>
+      </c>
+      <c r="Q70">
+        <v>-1428</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>90200</v>
+      </c>
+      <c r="T70">
+        <v>71656</v>
+      </c>
+      <c r="U70">
+        <v>1342</v>
+      </c>
+      <c r="V70">
+        <v>7089</v>
+      </c>
+      <c r="W70">
+        <v>-1909</v>
+      </c>
+      <c r="X70">
+        <v>-3743</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-4138</v>
+      </c>
+      <c r="AA70">
+        <v>12274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>3561</v>
+      </c>
+      <c r="D71">
+        <v>12906</v>
+      </c>
+      <c r="E71">
+        <v>9452</v>
+      </c>
+      <c r="F71">
+        <v>10369</v>
+      </c>
+      <c r="G71">
+        <v>34835</v>
+      </c>
+      <c r="H71">
+        <v>164612</v>
+      </c>
+      <c r="I71">
+        <v>3879</v>
+      </c>
+      <c r="J71">
+        <v>32255</v>
+      </c>
+      <c r="K71">
+        <v>4247</v>
+      </c>
+      <c r="L71">
+        <v>-2576</v>
+      </c>
+      <c r="M71">
+        <v>-355</v>
+      </c>
+      <c r="N71">
+        <v>27365</v>
+      </c>
+      <c r="O71">
+        <v>94070</v>
+      </c>
+      <c r="P71">
+        <v>41267</v>
+      </c>
+      <c r="Q71">
+        <v>985</v>
+      </c>
+      <c r="R71">
+        <v>43191</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>70542</v>
+      </c>
+      <c r="U71">
+        <v>2302</v>
+      </c>
+      <c r="V71">
+        <v>1983</v>
+      </c>
+      <c r="W71">
+        <v>-2032</v>
+      </c>
+      <c r="X71">
+        <v>-10720</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>10028</v>
+      </c>
+      <c r="AA71">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>3871</v>
+      </c>
+      <c r="D72">
+        <v>13466</v>
+      </c>
+      <c r="E72">
+        <v>9873</v>
+      </c>
+      <c r="F72">
+        <v>10588</v>
+      </c>
+      <c r="G72">
+        <v>37303</v>
+      </c>
+      <c r="H72">
+        <v>164980</v>
+      </c>
+      <c r="I72">
+        <v>4196</v>
+      </c>
+      <c r="J72">
+        <v>29434</v>
+      </c>
+      <c r="K72">
+        <v>7321</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>32156</v>
+      </c>
+      <c r="O72">
+        <v>94857</v>
+      </c>
+      <c r="P72">
+        <v>41028</v>
+      </c>
+      <c r="Q72">
+        <v>396</v>
+      </c>
+      <c r="R72">
+        <v>43282</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>70123</v>
+      </c>
+      <c r="U72">
+        <v>2704</v>
+      </c>
+      <c r="V72">
+        <v>3847</v>
+      </c>
+      <c r="W72">
+        <v>-1989</v>
+      </c>
+      <c r="X72">
+        <v>-1908</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-1131</v>
+      </c>
+      <c r="AA72">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>4114</v>
+      </c>
+      <c r="D73">
+        <v>13298</v>
+      </c>
+      <c r="E73">
+        <v>10024</v>
+      </c>
+      <c r="F73">
+        <v>10626</v>
+      </c>
+      <c r="G73">
+        <v>41583</v>
+      </c>
+      <c r="H73">
+        <v>167838</v>
+      </c>
+      <c r="I73">
+        <v>4297</v>
+      </c>
+      <c r="J73">
+        <v>34305</v>
+      </c>
+      <c r="K73">
+        <v>3130</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>29013</v>
+      </c>
+      <c r="O73">
+        <v>96174</v>
+      </c>
+      <c r="P73">
+        <v>41699</v>
+      </c>
+      <c r="Q73">
+        <v>846</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>71664</v>
+      </c>
+      <c r="U73">
+        <v>3559</v>
+      </c>
+      <c r="V73">
+        <v>5259</v>
+      </c>
+      <c r="W73">
+        <v>-1994</v>
+      </c>
+      <c r="X73">
+        <v>-1406</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-2453</v>
+      </c>
+      <c r="AA73">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-393</v>
+      </c>
+      <c r="D74">
+        <v>13977</v>
+      </c>
+      <c r="E74">
+        <v>8025</v>
+      </c>
+      <c r="F74">
+        <v>10936</v>
+      </c>
+      <c r="G74">
+        <v>49926</v>
+      </c>
+      <c r="H74">
+        <v>159422</v>
+      </c>
+      <c r="I74">
+        <v>4674</v>
+      </c>
+      <c r="J74">
+        <v>33287</v>
+      </c>
+      <c r="K74">
+        <v>4055</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>31858</v>
+      </c>
+      <c r="O74">
+        <v>95664</v>
+      </c>
+      <c r="P74">
+        <v>42123</v>
+      </c>
+      <c r="Q74">
+        <v>-2432</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>92400</v>
+      </c>
+      <c r="T74">
+        <v>63758</v>
+      </c>
+      <c r="U74">
+        <v>1139</v>
+      </c>
+      <c r="V74">
+        <v>4738</v>
+      </c>
+      <c r="W74">
+        <v>-1963</v>
+      </c>
+      <c r="X74">
+        <v>-6407</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-10</v>
+      </c>
+      <c r="AA74">
+        <v>-393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>3884</v>
+      </c>
+      <c r="D75">
+        <v>13118</v>
+      </c>
+      <c r="E75">
+        <v>9599</v>
+      </c>
+      <c r="F75">
+        <v>10707</v>
+      </c>
+      <c r="G75">
+        <v>45290</v>
+      </c>
+      <c r="H75">
+        <v>155421</v>
+      </c>
+      <c r="I75">
+        <v>4156</v>
+      </c>
+      <c r="J75">
+        <v>35911</v>
+      </c>
+      <c r="K75">
+        <v>4939</v>
+      </c>
+      <c r="L75">
+        <v>-1766</v>
+      </c>
+      <c r="M75">
+        <v>-3004</v>
+      </c>
+      <c r="N75">
+        <v>29423</v>
+      </c>
+      <c r="O75">
+        <v>96263</v>
+      </c>
+      <c r="P75">
+        <v>46619</v>
+      </c>
+      <c r="Q75">
+        <v>792</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>59158</v>
+      </c>
+      <c r="U75">
+        <v>1937</v>
+      </c>
+      <c r="V75">
+        <v>1698</v>
+      </c>
+      <c r="W75">
+        <v>-2045</v>
+      </c>
+      <c r="X75">
+        <v>-8467</v>
+      </c>
+      <c r="Y75">
+        <v>1043</v>
+      </c>
+      <c r="Z75">
+        <v>8100</v>
+      </c>
+      <c r="AA75">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>5045</v>
+      </c>
+      <c r="D76">
+        <v>13264</v>
+      </c>
+      <c r="E76">
+        <v>9793</v>
+      </c>
+      <c r="F76">
+        <v>10714</v>
+      </c>
+      <c r="G76">
+        <v>47073</v>
+      </c>
+      <c r="H76">
+        <v>156199</v>
+      </c>
+      <c r="I76">
+        <v>4002</v>
+      </c>
+      <c r="J76">
+        <v>36168</v>
+      </c>
+      <c r="K76">
+        <v>8368</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>32030</v>
+      </c>
+      <c r="O76">
+        <v>96274</v>
+      </c>
+      <c r="P76">
+        <v>47965</v>
+      </c>
+      <c r="Q76">
+        <v>-180</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>59925</v>
+      </c>
+      <c r="U76">
+        <v>1784</v>
+      </c>
+      <c r="V76">
+        <v>2611</v>
+      </c>
+      <c r="W76">
+        <v>-2002</v>
+      </c>
+      <c r="X76">
+        <v>-851</v>
+      </c>
+      <c r="Y76">
+        <v>1026</v>
+      </c>
+      <c r="Z76">
+        <v>-1426</v>
+      </c>
+      <c r="AA76">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>7680</v>
+      </c>
+      <c r="D77">
+        <v>12680</v>
+      </c>
+      <c r="E77">
+        <v>9439</v>
+      </c>
+      <c r="F77">
+        <v>10225</v>
+      </c>
+      <c r="G77">
+        <v>33459</v>
+      </c>
+      <c r="H77">
+        <v>170446</v>
+      </c>
+      <c r="I77">
+        <v>3942</v>
+      </c>
+      <c r="J77">
+        <v>36044</v>
+      </c>
+      <c r="K77">
+        <v>14186</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>36974</v>
+      </c>
+      <c r="O77">
+        <v>105051</v>
+      </c>
+      <c r="P77">
+        <v>53979</v>
+      </c>
+      <c r="Q77">
+        <v>1008</v>
+      </c>
+      <c r="R77">
+        <v>43737</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>65395</v>
+      </c>
+      <c r="U77">
+        <v>2785</v>
+      </c>
+      <c r="V77">
+        <v>4510</v>
+      </c>
+      <c r="W77">
+        <v>-2004</v>
+      </c>
+      <c r="X77">
+        <v>3273</v>
+      </c>
+      <c r="Y77">
+        <v>1037</v>
+      </c>
+      <c r="Z77">
+        <v>4798</v>
+      </c>
+      <c r="AA77">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>6772</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>32803</v>
+      </c>
+      <c r="H78">
+        <v>167594</v>
+      </c>
+      <c r="I78">
+        <v>3887</v>
+      </c>
+      <c r="J78">
+        <v>35955</v>
+      </c>
+      <c r="K78">
+        <v>14733</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>37304</v>
+      </c>
+      <c r="O78">
+        <v>104148</v>
+      </c>
+      <c r="P78">
+        <v>53449</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>88300</v>
+      </c>
+      <c r="T78">
+        <v>63446</v>
+      </c>
+      <c r="U78">
+        <v>1121</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>1030</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>3401</v>
+      </c>
+      <c r="D79">
+        <v>12028</v>
+      </c>
+      <c r="E79">
+        <v>9881</v>
+      </c>
+      <c r="F79">
+        <v>9682</v>
+      </c>
+      <c r="G79">
+        <v>34737</v>
+      </c>
+      <c r="H79">
+        <v>166336</v>
+      </c>
+      <c r="I79">
+        <v>3972</v>
+      </c>
+      <c r="J79">
+        <v>36281</v>
+      </c>
+      <c r="K79">
+        <v>15670</v>
+      </c>
+      <c r="L79">
+        <v>-7551</v>
+      </c>
+      <c r="M79">
+        <v>-2181</v>
+      </c>
+      <c r="N79">
+        <v>33890</v>
+      </c>
+      <c r="O79">
+        <v>100998</v>
+      </c>
+      <c r="P79">
+        <v>52288</v>
+      </c>
+      <c r="Q79">
+        <v>846</v>
+      </c>
+      <c r="R79">
+        <v>43919</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>65338</v>
+      </c>
+      <c r="U79">
+        <v>2151</v>
+      </c>
+      <c r="V79">
+        <v>3133</v>
+      </c>
+      <c r="W79">
+        <v>-2105</v>
+      </c>
+      <c r="X79">
+        <v>-2200</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>420</v>
+      </c>
+      <c r="AA79">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>3427</v>
+      </c>
+      <c r="D80">
+        <v>11801</v>
+      </c>
+      <c r="E80">
+        <v>9128</v>
+      </c>
+      <c r="F80">
+        <v>9569</v>
+      </c>
+      <c r="G80">
+        <v>46424</v>
+      </c>
+      <c r="H80">
+        <v>177934</v>
+      </c>
+      <c r="I80">
+        <v>3872</v>
+      </c>
+      <c r="J80">
+        <v>50529</v>
+      </c>
+      <c r="K80">
+        <v>11603</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>32723</v>
+      </c>
+      <c r="O80">
+        <v>113370</v>
+      </c>
+      <c r="P80">
+        <v>63613</v>
+      </c>
+      <c r="Q80">
+        <v>-351</v>
+      </c>
+      <c r="R80">
+        <v>44010</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>64564</v>
+      </c>
+      <c r="U80">
+        <v>1801</v>
+      </c>
+      <c r="V80">
+        <v>3555</v>
+      </c>
+      <c r="W80">
+        <v>-2111</v>
+      </c>
+      <c r="X80">
+        <v>9159</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-12547</v>
+      </c>
+      <c r="AA80">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>2194</v>
+      </c>
+      <c r="D81">
+        <v>12131</v>
+      </c>
+      <c r="E81">
+        <v>10012</v>
+      </c>
+      <c r="F81">
+        <v>9634</v>
+      </c>
+      <c r="G81">
+        <v>47739</v>
+      </c>
+      <c r="H81">
+        <v>178983</v>
+      </c>
+      <c r="I81">
+        <v>4141</v>
+      </c>
+      <c r="J81">
+        <v>49785</v>
+      </c>
+      <c r="K81">
+        <v>11214</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>34154</v>
+      </c>
+      <c r="O81">
+        <v>113488</v>
+      </c>
+      <c r="P81">
+        <v>63148</v>
+      </c>
+      <c r="Q81">
+        <v>-218</v>
+      </c>
+      <c r="R81">
+        <v>44101</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>65495</v>
+      </c>
+      <c r="U81">
+        <v>1587</v>
+      </c>
+      <c r="V81">
+        <v>2090</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-2821</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>838</v>
+      </c>
+      <c r="AA81">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
         <v>11684</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>7930</v>
+      </c>
+      <c r="F82">
         <v>8797</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>63148</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
+      <c r="G82">
+        <v>35067</v>
+      </c>
+      <c r="H82">
+        <v>154229</v>
+      </c>
+      <c r="I82">
+        <v>4309</v>
+      </c>
+      <c r="J82">
+        <v>37133</v>
+      </c>
+      <c r="K82">
+        <v>701</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>25920</v>
+      </c>
+      <c r="O82">
+        <v>90756</v>
+      </c>
+      <c r="P82">
+        <v>41271</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>65495</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="S82">
+        <v>78500</v>
+      </c>
+      <c r="T82">
+        <v>63473</v>
+      </c>
+      <c r="U82">
+        <v>1784</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>1114</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>594</v>
       </c>
     </row>
